--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_40.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3442538.722683102</v>
+        <v>3465188.137519768</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4336573.274641917</v>
+        <v>4336573.27464192</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6370656.208134079</v>
+        <v>6370656.20813408</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>94.02651364711687</v>
+        <v>45.57582713608821</v>
       </c>
       <c r="G2" t="n">
-        <v>60.87856465122326</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.02651364711687</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -704,16 +704,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>94.02651364711687</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>94.02651364711687</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>94.02651364711687</v>
       </c>
       <c r="U2" t="n">
-        <v>94.02651364711687</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.07196189412271</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.02651364711687</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>82.81855322038055</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>94.02651364711687</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
-        <v>94.02651364711687</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>94.02651364711687</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>39.16045393825114</v>
+      </c>
+      <c r="W4" t="n">
         <v>94.02651364711687</v>
-      </c>
-      <c r="U4" t="n">
-        <v>16.89096211236829</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,64 +905,64 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>67.5158157052455</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
         <v>94.02651364711687</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>94.02651364711687</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>60.87856465122321</v>
-      </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>94.02651364711687</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>94.02651364711687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>94.02651364711687</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,7 +1023,7 @@
         <v>94.02651364711687</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>94.02651364711687</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>86.70184268982449</v>
+        <v>94.02651364711687</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>82.07196189412271</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>36.43901320314464</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>94.02651364711687</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,64 +1142,64 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>94.02651364711687</v>
       </c>
-      <c r="G8" t="n">
-        <v>82.81855322038056</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
+      <c r="W8" t="n">
         <v>94.02651364711687</v>
       </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>94.02651364711687</v>
       </c>
       <c r="Y8" t="n">
-        <v>94.02651364711687</v>
+        <v>60.63976996353407</v>
       </c>
     </row>
     <row r="9">
@@ -1218,52 +1218,52 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>94.02651364711687</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>82.81855322038055</v>
       </c>
       <c r="U9" t="n">
         <v>94.02651364711687</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>82.07196189412268</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>94.02651364711687</v>
       </c>
       <c r="Y9" t="n">
-        <v>94.02651364711687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,67 +1294,67 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>39.16045393825114</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>94.02651364711687</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>39.16045393825114</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>228.1244227538129</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>212.9161832488971</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>23.3104990742796</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>96.53723069726129</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>124.7870340409664</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>222.6823498505429</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>156.7361266987889</v>
+        <v>110.6178971840742</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39.97456478299728</v>
+        <v>39.97456478299726</v>
       </c>
       <c r="C12" t="n">
-        <v>46.14988012144568</v>
+        <v>46.14988012144566</v>
       </c>
       <c r="D12" t="n">
-        <v>20.88644669776869</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>31.08646158853088</v>
+        <v>31.08646158853087</v>
       </c>
       <c r="F12" t="n">
-        <v>18.51059352651382</v>
+        <v>52.05718081979562</v>
       </c>
       <c r="G12" t="n">
-        <v>10.78489829634057</v>
+        <v>10.78489829634056</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>45.12455223696776</v>
+        <v>45.12455223696774</v>
       </c>
       <c r="T12" t="n">
-        <v>73.60610982795154</v>
+        <v>73.60610982795153</v>
       </c>
       <c r="U12" t="n">
-        <v>99.38276321410476</v>
+        <v>99.38276321410474</v>
       </c>
       <c r="V12" t="n">
         <v>106.2419682825552</v>
@@ -1512,10 +1512,10 @@
         <v>125.1363642940495</v>
       </c>
       <c r="X12" t="n">
-        <v>127.0841282602628</v>
+        <v>79.2143663366074</v>
       </c>
       <c r="Y12" t="n">
-        <v>79.1240769104343</v>
+        <v>79.12407691043428</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.27336131506723</v>
+        <v>53.27336131506722</v>
       </c>
       <c r="C13" t="n">
-        <v>40.68820223175777</v>
+        <v>40.68820223175776</v>
       </c>
       <c r="D13" t="n">
-        <v>22.05685415134229</v>
+        <v>22.05685415134228</v>
       </c>
       <c r="E13" t="n">
-        <v>19.87534377969911</v>
+        <v>19.87534377969909</v>
       </c>
       <c r="F13" t="n">
-        <v>18.86242915606118</v>
+        <v>18.86242915606117</v>
       </c>
       <c r="G13" t="n">
-        <v>41.4323604915887</v>
+        <v>41.43236049158868</v>
       </c>
       <c r="H13" t="n">
-        <v>35.66855364056951</v>
+        <v>35.6685536405695</v>
       </c>
       <c r="I13" t="n">
-        <v>28.89185606038822</v>
+        <v>28.89185606038821</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>50.73477251029942</v>
+        <v>50.73477251029941</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>97.45797917010218</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>39.40323492941439</v>
       </c>
       <c r="U13" t="n">
-        <v>136.8612140995162</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>125.5790244569579</v>
@@ -1591,10 +1591,10 @@
         <v>159.9643794697209</v>
       </c>
       <c r="X13" t="n">
-        <v>99.15103652216709</v>
+        <v>99.15103652216708</v>
       </c>
       <c r="Y13" t="n">
-        <v>92.02603448522473</v>
+        <v>92.02603448522471</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>225.496690640665</v>
       </c>
       <c r="D14" t="n">
-        <v>214.9068404903404</v>
+        <v>10.44292599281477</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
         <v>199.6986009854246</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>70.69968844006337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.2438684559028</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>83.31964843378881</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.6626032702976</v>
+        <v>187.9760573397924</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,13 +1686,13 @@
         <v>26.7569825195248</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>32.9322978579732</v>
       </c>
       <c r="D15" t="n">
         <v>7.668864434296211</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>17.8688793250584</v>
       </c>
       <c r="F15" t="n">
         <v>5.293011263041336</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>81.85565933097244</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>60.38852756447906</v>
+        <v>149.2089925733976</v>
       </c>
       <c r="U15" t="n">
         <v>86.16518095063228</v>
@@ -1783,7 +1783,7 @@
         <v>22.45097137709703</v>
       </c>
       <c r="I16" t="n">
-        <v>15.67427379691574</v>
+        <v>15.67427379691588</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>84.24039690662971</v>
       </c>
       <c r="T16" t="n">
-        <v>88.16938829793911</v>
+        <v>88.16938829793895</v>
       </c>
       <c r="U16" t="n">
         <v>146.5428282261483</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>141.5856972033787</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>70.69968844006337</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>152.6450865329113</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>229.9548995481265</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1923,10 +1923,10 @@
         <v>26.7569825195248</v>
       </c>
       <c r="C18" t="n">
-        <v>32.9322978579732</v>
+        <v>82.8809872154503</v>
       </c>
       <c r="D18" t="n">
-        <v>7.668864434296211</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1935,7 +1935,7 @@
         <v>5.293011263041336</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>84.28834329810431</v>
+        <v>31.90696997349528</v>
       </c>
       <c r="T18" t="n">
         <v>60.38852756447906</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>199.6986009854246</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>44.13630594860604</v>
       </c>
       <c r="W20" t="n">
         <v>209.4647675870705</v>
       </c>
       <c r="X20" t="n">
-        <v>229.9548995481265</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.88000738590417</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2163,7 @@
         <v>32.9322978579732</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>7.668864434296211</v>
       </c>
       <c r="E21" t="n">
         <v>17.8688793250584</v>
@@ -2178,10 +2178,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>109.3964162248184</v>
+        <v>31.90696997349528</v>
       </c>
       <c r="T21" t="n">
         <v>60.38852756447906</v>
@@ -2217,7 +2217,7 @@
         <v>86.16518095063228</v>
       </c>
       <c r="V21" t="n">
-        <v>93.02438601908273</v>
+        <v>220.1468092230755</v>
       </c>
       <c r="W21" t="n">
         <v>111.9187820305771</v>
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>242.957640533138</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>225.496690640665</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>43.2067368167551</v>
       </c>
       <c r="E23" t="n">
         <v>242.1541689419192</v>
       </c>
       <c r="F23" t="n">
-        <v>267.0998446113689</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>275.5265363847925</v>
       </c>
       <c r="H23" t="n">
-        <v>199.6986009854246</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>70.69968844006337</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>11.15990389234153</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>209.4647675870705</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>229.9548995481265</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>246.461737525711</v>
       </c>
     </row>
     <row r="24">
@@ -2394,22 +2394,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>26.7569825195248</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>32.9322978579732</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>7.668864434296211</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>17.8688793250584</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>5.293011263041336</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>31.90696997349528</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>124.0952544824058</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>86.16518095063228</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>93.02438601908273</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>111.9187820305771</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>65.99678407313493</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>65.90649464696182</v>
+        <v>127.1805375977568</v>
       </c>
     </row>
     <row r="25">
@@ -2561,19 +2561,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>277.393296597255</v>
       </c>
       <c r="F26" t="n">
         <v>302.3389722667046</v>
       </c>
       <c r="G26" t="n">
-        <v>269.4185401894983</v>
+        <v>310.7656640401282</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>234.9377286407603</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>69.623348858162</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>45.33204446614283</v>
+        <v>45.33204446614285</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,19 +2609,19 @@
         <v>118.5587760891245</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>146.8085794328297</v>
       </c>
       <c r="V26" t="n">
-        <v>223.2151849951281</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>265.1940272034622</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>281.7008651810468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,25 +2631,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>61.99611017486049</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>68.17142551330889</v>
+        <v>68.1714255133089</v>
       </c>
       <c r="D27" t="n">
-        <v>42.9079920896319</v>
+        <v>42.90799208963192</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>53.10800698039411</v>
       </c>
       <c r="F27" t="n">
-        <v>40.53213891837703</v>
+        <v>40.53213891837704</v>
       </c>
       <c r="G27" t="n">
-        <v>32.80644368820379</v>
+        <v>32.8064436882038</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>7.698370761489628</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>67.14609762883097</v>
+        <v>67.14609762883099</v>
       </c>
       <c r="T27" t="n">
-        <v>95.62765521981476</v>
+        <v>95.62765521981477</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>121.404308605968</v>
       </c>
       <c r="V27" t="n">
-        <v>128.2635136744184</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>147.1579096859128</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>119.5542318213984</v>
+        <v>119.5542318213981</v>
       </c>
     </row>
     <row r="28">
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>62.709747623621</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>63.45390588345191</v>
+        <v>63.45390588345192</v>
       </c>
       <c r="H28" t="n">
-        <v>57.69009903243273</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>50.91340145225143</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>72.75631790216264</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>119.4795245619654</v>
+        <v>85.62063314878918</v>
       </c>
       <c r="T28" t="n">
-        <v>123.4085159532746</v>
+        <v>123.4085159532747</v>
       </c>
       <c r="U28" t="n">
-        <v>181.781955881484</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>82.91516859481621</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>181.9859248615842</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>121.1725819140303</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>114.047579877088</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>60.90907559728764</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>271.0163905790116</v>
       </c>
       <c r="G29" t="n">
         <v>279.4430823524352</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>73.16041442354549</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>87.2361944014315</v>
@@ -2855,7 +2855,7 @@
         <v>213.3813135547132</v>
       </c>
       <c r="X29" t="n">
-        <v>233.8714455157692</v>
+        <v>96.92454495759053</v>
       </c>
       <c r="Y29" t="n">
         <v>250.3782834933537</v>
@@ -2877,22 +2877,22 @@
         <v>11.5854104019389</v>
       </c>
       <c r="E30" t="n">
-        <v>139.4945824322128</v>
+        <v>128.1635636746175</v>
       </c>
       <c r="F30" t="n">
-        <v>9.209557230684027</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>1.483862000510783</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>35.82351594113797</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>64.30507353212175</v>
       </c>
       <c r="U30" t="n">
         <v>90.08172691827497</v>
@@ -3035,19 +3035,19 @@
         <v>149.120716631521</v>
       </c>
       <c r="E32" t="n">
-        <v>176.3680450830998</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>201.3137207525494</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>209.7404125259731</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>133.9124771266052</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>4.913564581243918</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>3.457744597083348</v>
       </c>
       <c r="T32" t="n">
         <v>17.53352457496936</v>
       </c>
       <c r="U32" t="n">
-        <v>13.82735332738091</v>
+        <v>45.7833279186745</v>
       </c>
       <c r="V32" t="n">
         <v>122.1899334809729</v>
       </c>
       <c r="W32" t="n">
-        <v>143.678643728251</v>
+        <v>100.2352910784589</v>
       </c>
       <c r="X32" t="n">
-        <v>164.168775689307</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>180.6756136668916</v>
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>69.88752780449981</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3171,10 +3171,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>165.5502728049419</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.1203707881423668</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>159.7105667818456</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3281,10 +3281,10 @@
         <v>209.7404125259731</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>133.9124771266052</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>4.913564581243918</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>3.457744597083348</v>
       </c>
       <c r="T35" t="n">
         <v>17.53352457496936</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>45.7833279186745</v>
       </c>
       <c r="V35" t="n">
-        <v>22.67577024593914</v>
+        <v>122.1899334809729</v>
       </c>
       <c r="W35" t="n">
         <v>143.678643728251</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>52.80490299009653</v>
       </c>
       <c r="Y35" t="n">
-        <v>180.6756136668916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>29.67863817674026</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,16 +3396,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>70.84543632849112</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>20.37905709181283</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>46.13265817175761</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>177.1715166743186</v>
       </c>
       <c r="C38" t="n">
-        <v>85.51098724232868</v>
+        <v>159.7105667818456</v>
       </c>
       <c r="D38" t="n">
-        <v>149.120716631521</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>176.3680450830998</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,10 +3518,10 @@
         <v>209.7404125259731</v>
       </c>
       <c r="H38" t="n">
-        <v>133.9124771266052</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>4.913564581243918</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>38.9478023568395</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>164.168775689307</v>
       </c>
       <c r="Y38" t="n">
         <v>180.6756136668916</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.67863817674035</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>138.4002724344772</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>27.23826216026328</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>46.13265817175761</v>
       </c>
       <c r="X39" t="n">
-        <v>0.2106602143154817</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1203707881423668</v>
       </c>
     </row>
     <row r="40">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>225.2319683381395</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>35.62628416352206</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>94.77723580861772</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>97.66418621082165</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>234.9981349397854</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>218.3015395813158</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,22 +3816,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>52.2903498722397</v>
+        <v>52.29034987223972</v>
       </c>
       <c r="C42" t="n">
-        <v>58.4656652106881</v>
+        <v>58.46566521068812</v>
       </c>
       <c r="D42" t="n">
-        <v>33.20223178701112</v>
+        <v>33.20223178701113</v>
       </c>
       <c r="E42" t="n">
-        <v>43.40224667777331</v>
+        <v>43.40224667777332</v>
       </c>
       <c r="F42" t="n">
-        <v>30.82637861575624</v>
+        <v>30.82637861575625</v>
       </c>
       <c r="G42" t="n">
-        <v>23.100683385583</v>
+        <v>23.10068338558303</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>57.44033732621018</v>
+        <v>57.44033732621021</v>
       </c>
       <c r="T42" t="n">
-        <v>85.92189491719397</v>
+        <v>85.92189491719398</v>
       </c>
       <c r="U42" t="n">
         <v>111.6985483033472</v>
@@ -3882,10 +3882,10 @@
         <v>137.452149383292</v>
       </c>
       <c r="X42" t="n">
-        <v>91.53015142584984</v>
+        <v>91.53015142584985</v>
       </c>
       <c r="Y42" t="n">
-        <v>91.43986199967672</v>
+        <v>91.43986199967674</v>
       </c>
     </row>
     <row r="43">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>65.58914640430967</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>53.00398732100021</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>34.37263924058473</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>32.19112886894155</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>31.17821424530362</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>53.74814558083114</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>47.98433872981195</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>41.20764114963066</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>109.7737642593446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>113.7027556506539</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0761955788632</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>137.8948095462003</v>
+        <v>81.13576735737459</v>
       </c>
       <c r="W43" t="n">
-        <v>172.2801645589633</v>
+        <v>172.2801645589634</v>
       </c>
       <c r="X43" t="n">
         <v>111.4668216114095</v>
       </c>
       <c r="Y43" t="n">
-        <v>11.3053034371935</v>
+        <v>104.3418195744672</v>
       </c>
     </row>
     <row r="44">
@@ -3986,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,28 +4053,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>96.83051382340518</v>
+        <v>96.8305138234052</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>103.0058291618536</v>
       </c>
       <c r="D45" t="n">
-        <v>77.7423957381766</v>
+        <v>77.74239573817661</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>87.9424106289388</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>75.36654256692174</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>67.64084733674849</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>19.69396302495294</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>30.45516432618099</v>
       </c>
       <c r="S45" t="n">
-        <v>101.9805012773757</v>
+        <v>77.57264239543551</v>
       </c>
       <c r="T45" t="n">
-        <v>130.4620588683595</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,10 +4116,10 @@
         <v>163.0979173229631</v>
       </c>
       <c r="W45" t="n">
-        <v>93.1645239182816</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>136.0703153770153</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>135.9800259508422</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>98.2883095319966</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>28.9799126747589</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.45937342523223</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4186,16 +4186,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>158.2429196018193</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>216.6163595300287</v>
+        <v>119.3315727563408</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>182.4349734973659</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>216.8203285101289</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>271.0381628090113</v>
+        <v>81.08560998655297</v>
       </c>
       <c r="C2" t="n">
-        <v>271.0381628090113</v>
+        <v>81.08560998655297</v>
       </c>
       <c r="D2" t="n">
-        <v>271.0381628090113</v>
+        <v>81.08560998655297</v>
       </c>
       <c r="E2" t="n">
-        <v>271.0381628090113</v>
+        <v>81.08560998655297</v>
       </c>
       <c r="F2" t="n">
-        <v>176.0618863977821</v>
+        <v>35.04942096020124</v>
       </c>
       <c r="G2" t="n">
-        <v>114.5683867500819</v>
+        <v>19.5921103388527</v>
       </c>
       <c r="H2" t="n">
-        <v>114.5683867500819</v>
+        <v>19.5921103388527</v>
       </c>
       <c r="I2" t="n">
         <v>19.5921103388527</v>
@@ -4334,13 +4334,13 @@
         <v>7.52212109176935</v>
       </c>
       <c r="L2" t="n">
-        <v>7.52212109176935</v>
+        <v>100.2735022751251</v>
       </c>
       <c r="M2" t="n">
-        <v>100.2735022751251</v>
+        <v>193.3597507857708</v>
       </c>
       <c r="N2" t="n">
-        <v>193.3597507857708</v>
+        <v>286.4459992964165</v>
       </c>
       <c r="O2" t="n">
         <v>286.4459992964165</v>
@@ -4352,28 +4352,28 @@
         <v>366.0144392202404</v>
       </c>
       <c r="R2" t="n">
-        <v>366.0144392202404</v>
+        <v>271.0381628090113</v>
       </c>
       <c r="S2" t="n">
-        <v>366.0144392202404</v>
+        <v>176.0618863977821</v>
       </c>
       <c r="T2" t="n">
-        <v>366.0144392202404</v>
+        <v>81.08560998655297</v>
       </c>
       <c r="U2" t="n">
-        <v>271.0381628090113</v>
+        <v>81.08560998655297</v>
       </c>
       <c r="V2" t="n">
-        <v>271.0381628090113</v>
+        <v>81.08560998655297</v>
       </c>
       <c r="W2" t="n">
-        <v>271.0381628090113</v>
+        <v>81.08560998655297</v>
       </c>
       <c r="X2" t="n">
-        <v>271.0381628090113</v>
+        <v>81.08560998655297</v>
       </c>
       <c r="Y2" t="n">
-        <v>271.0381628090113</v>
+        <v>81.08560998655297</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.276253744555063</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="C3" t="n">
-        <v>8.276253744555063</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="D3" t="n">
-        <v>8.276253744555063</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="E3" t="n">
-        <v>8.276253744555063</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="F3" t="n">
-        <v>8.276253744555063</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="G3" t="n">
-        <v>8.276253744555063</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="H3" t="n">
-        <v>8.276253744555063</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="I3" t="n">
-        <v>8.276253744555063</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="J3" t="n">
         <v>7.52212109176935</v>
       </c>
       <c r="K3" t="n">
-        <v>100.6083696024151</v>
+        <v>27.45275054320109</v>
       </c>
       <c r="L3" t="n">
-        <v>193.6946181130608</v>
+        <v>27.45275054320109</v>
       </c>
       <c r="M3" t="n">
-        <v>286.7808666237065</v>
+        <v>120.5389990538468</v>
       </c>
       <c r="N3" t="n">
-        <v>376.1060545884675</v>
+        <v>213.6252475644925</v>
       </c>
       <c r="O3" t="n">
-        <v>376.1060545884675</v>
+        <v>306.7114960751382</v>
       </c>
       <c r="P3" t="n">
-        <v>376.1060545884675</v>
+        <v>306.7114960751382</v>
       </c>
       <c r="Q3" t="n">
         <v>376.1060545884675</v>
       </c>
       <c r="R3" t="n">
-        <v>376.1060545884675</v>
+        <v>281.1297781772383</v>
       </c>
       <c r="S3" t="n">
-        <v>376.1060545884675</v>
+        <v>281.1297781772383</v>
       </c>
       <c r="T3" t="n">
-        <v>376.1060545884675</v>
+        <v>281.1297781772383</v>
       </c>
       <c r="U3" t="n">
-        <v>376.1060545884675</v>
+        <v>197.4746739142277</v>
       </c>
       <c r="V3" t="n">
-        <v>281.1297781772383</v>
+        <v>197.4746739142277</v>
       </c>
       <c r="W3" t="n">
-        <v>281.1297781772383</v>
+        <v>102.4983975029985</v>
       </c>
       <c r="X3" t="n">
-        <v>186.1535017660092</v>
+        <v>102.4983975029985</v>
       </c>
       <c r="Y3" t="n">
-        <v>91.17722535478002</v>
+        <v>7.52212109176935</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.01655727952981</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="C4" t="n">
-        <v>30.01655727952981</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="D4" t="n">
-        <v>30.01655727952981</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="E4" t="n">
-        <v>30.01655727952981</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="F4" t="n">
-        <v>30.01655727952981</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="G4" t="n">
-        <v>30.01655727952981</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="H4" t="n">
-        <v>30.01655727952981</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="I4" t="n">
-        <v>30.01655727952981</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="J4" t="n">
-        <v>30.01655727952981</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="K4" t="n">
         <v>7.52212109176935</v>
@@ -4516,22 +4516,22 @@
         <v>142.0544115820401</v>
       </c>
       <c r="T4" t="n">
-        <v>47.07813517081091</v>
+        <v>142.0544115820401</v>
       </c>
       <c r="U4" t="n">
-        <v>30.01655727952981</v>
+        <v>142.0544115820401</v>
       </c>
       <c r="V4" t="n">
-        <v>30.01655727952981</v>
+        <v>102.4983975029985</v>
       </c>
       <c r="W4" t="n">
-        <v>30.01655727952981</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="X4" t="n">
-        <v>30.01655727952981</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="Y4" t="n">
-        <v>30.01655727952981</v>
+        <v>7.52212109176935</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>209.544663161311</v>
+        <v>186.1535017660092</v>
       </c>
       <c r="C5" t="n">
-        <v>209.544663161311</v>
+        <v>186.1535017660092</v>
       </c>
       <c r="D5" t="n">
-        <v>209.544663161311</v>
+        <v>186.1535017660092</v>
       </c>
       <c r="E5" t="n">
-        <v>209.544663161311</v>
+        <v>186.1535017660092</v>
       </c>
       <c r="F5" t="n">
-        <v>114.5683867500819</v>
+        <v>117.9557081243471</v>
       </c>
       <c r="G5" t="n">
-        <v>19.5921103388527</v>
+        <v>102.4983975029985</v>
       </c>
       <c r="H5" t="n">
-        <v>19.5921103388527</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="I5" t="n">
-        <v>19.5921103388527</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="J5" t="n">
         <v>7.52212109176935</v>
       </c>
       <c r="K5" t="n">
-        <v>100.2735022751251</v>
+        <v>100.6083696024151</v>
       </c>
       <c r="L5" t="n">
-        <v>100.2735022751251</v>
+        <v>193.6946181130608</v>
       </c>
       <c r="M5" t="n">
-        <v>100.2735022751251</v>
+        <v>286.4459992964165</v>
       </c>
       <c r="N5" t="n">
-        <v>193.3597507857708</v>
+        <v>286.4459992964165</v>
       </c>
       <c r="O5" t="n">
         <v>286.4459992964165</v>
@@ -4586,31 +4586,31 @@
         <v>376.1060545884675</v>
       </c>
       <c r="Q5" t="n">
-        <v>366.0144392202404</v>
+        <v>376.1060545884675</v>
       </c>
       <c r="R5" t="n">
-        <v>366.0144392202404</v>
+        <v>376.1060545884675</v>
       </c>
       <c r="S5" t="n">
-        <v>366.0144392202404</v>
+        <v>376.1060545884675</v>
       </c>
       <c r="T5" t="n">
-        <v>366.0144392202404</v>
+        <v>376.1060545884675</v>
       </c>
       <c r="U5" t="n">
-        <v>366.0144392202404</v>
+        <v>376.1060545884675</v>
       </c>
       <c r="V5" t="n">
-        <v>304.5209395725402</v>
+        <v>281.1297781772383</v>
       </c>
       <c r="W5" t="n">
-        <v>304.5209395725402</v>
+        <v>186.1535017660092</v>
       </c>
       <c r="X5" t="n">
-        <v>304.5209395725402</v>
+        <v>186.1535017660092</v>
       </c>
       <c r="Y5" t="n">
-        <v>209.544663161311</v>
+        <v>186.1535017660092</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193.5521592986277</v>
+        <v>8.276253744555063</v>
       </c>
       <c r="C6" t="n">
-        <v>193.5521592986277</v>
+        <v>8.276253744555063</v>
       </c>
       <c r="D6" t="n">
-        <v>193.5521592986277</v>
+        <v>8.276253744555063</v>
       </c>
       <c r="E6" t="n">
-        <v>193.5521592986277</v>
+        <v>8.276253744555063</v>
       </c>
       <c r="F6" t="n">
-        <v>193.5521592986277</v>
+        <v>8.276253744555063</v>
       </c>
       <c r="G6" t="n">
-        <v>193.5521592986277</v>
+        <v>8.276253744555063</v>
       </c>
       <c r="H6" t="n">
-        <v>98.57588288739858</v>
+        <v>8.276253744555063</v>
       </c>
       <c r="I6" t="n">
         <v>8.276253744555063</v>
@@ -4647,19 +4647,19 @@
         <v>7.52212109176935</v>
       </c>
       <c r="K6" t="n">
+        <v>7.52212109176935</v>
+      </c>
+      <c r="L6" t="n">
         <v>100.6083696024151</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>193.6946181130608</v>
       </c>
-      <c r="M6" t="n">
-        <v>286.7808666237065</v>
-      </c>
       <c r="N6" t="n">
-        <v>286.7808666237065</v>
+        <v>283.0198060778218</v>
       </c>
       <c r="O6" t="n">
-        <v>286.7808666237065</v>
+        <v>376.1060545884675</v>
       </c>
       <c r="P6" t="n">
         <v>376.1060545884675</v>
@@ -4671,25 +4671,25 @@
         <v>281.1297781772383</v>
       </c>
       <c r="S6" t="n">
-        <v>281.1297781772383</v>
+        <v>186.1535017660092</v>
       </c>
       <c r="T6" t="n">
-        <v>281.1297781772383</v>
+        <v>186.1535017660092</v>
       </c>
       <c r="U6" t="n">
-        <v>281.1297781772383</v>
+        <v>186.1535017660092</v>
       </c>
       <c r="V6" t="n">
-        <v>281.1297781772383</v>
+        <v>186.1535017660092</v>
       </c>
       <c r="W6" t="n">
-        <v>193.5521592986277</v>
+        <v>91.17722535478002</v>
       </c>
       <c r="X6" t="n">
-        <v>193.5521592986277</v>
+        <v>8.276253744555063</v>
       </c>
       <c r="Y6" t="n">
-        <v>193.5521592986277</v>
+        <v>8.276253744555063</v>
       </c>
     </row>
     <row r="7">
@@ -4741,28 +4741,28 @@
         <v>142.0544115820401</v>
       </c>
       <c r="P7" t="n">
-        <v>139.305481546579</v>
+        <v>142.0544115820401</v>
       </c>
       <c r="Q7" t="n">
-        <v>139.305481546579</v>
+        <v>55.02204466113665</v>
       </c>
       <c r="R7" t="n">
-        <v>139.305481546579</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="S7" t="n">
-        <v>139.305481546579</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="T7" t="n">
-        <v>139.305481546579</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="U7" t="n">
-        <v>139.305481546579</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="V7" t="n">
-        <v>102.4983975029985</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="W7" t="n">
-        <v>102.4983975029985</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="X7" t="n">
         <v>7.52212109176935</v>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>186.1535017660092</v>
+        <v>29.92493246232136</v>
       </c>
       <c r="C8" t="n">
-        <v>186.1535017660092</v>
+        <v>29.92493246232136</v>
       </c>
       <c r="D8" t="n">
-        <v>186.1535017660092</v>
+        <v>29.92493246232136</v>
       </c>
       <c r="E8" t="n">
-        <v>186.1535017660092</v>
+        <v>29.92493246232136</v>
       </c>
       <c r="F8" t="n">
-        <v>91.17722535478002</v>
+        <v>22.97943171311789</v>
       </c>
       <c r="G8" t="n">
         <v>7.52212109176935</v>
@@ -4808,16 +4808,16 @@
         <v>100.6083696024151</v>
       </c>
       <c r="L8" t="n">
-        <v>193.6946181130608</v>
+        <v>100.6083696024151</v>
       </c>
       <c r="M8" t="n">
-        <v>286.7808666237065</v>
+        <v>193.3597507857708</v>
       </c>
       <c r="N8" t="n">
-        <v>286.7808666237065</v>
+        <v>193.3597507857708</v>
       </c>
       <c r="O8" t="n">
-        <v>376.1060545884675</v>
+        <v>286.4459992964165</v>
       </c>
       <c r="P8" t="n">
         <v>376.1060545884675</v>
@@ -4832,22 +4832,22 @@
         <v>376.1060545884675</v>
       </c>
       <c r="T8" t="n">
-        <v>281.1297781772383</v>
+        <v>376.1060545884675</v>
       </c>
       <c r="U8" t="n">
-        <v>281.1297781772383</v>
+        <v>376.1060545884675</v>
       </c>
       <c r="V8" t="n">
         <v>281.1297781772383</v>
       </c>
       <c r="W8" t="n">
-        <v>281.1297781772383</v>
+        <v>186.1535017660092</v>
       </c>
       <c r="X8" t="n">
-        <v>281.1297781772383</v>
+        <v>91.17722535478002</v>
       </c>
       <c r="Y8" t="n">
-        <v>186.1535017660092</v>
+        <v>29.92493246232136</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>103.2525301557842</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="C9" t="n">
-        <v>103.2525301557842</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="D9" t="n">
-        <v>103.2525301557842</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="E9" t="n">
-        <v>8.276253744555063</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="F9" t="n">
-        <v>8.276253744555063</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="G9" t="n">
-        <v>8.276253744555063</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="H9" t="n">
-        <v>8.276253744555063</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="I9" t="n">
-        <v>8.276253744555063</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="J9" t="n">
         <v>7.52212109176935</v>
       </c>
       <c r="K9" t="n">
-        <v>27.45275054320109</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="L9" t="n">
-        <v>27.45275054320109</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="M9" t="n">
-        <v>120.5389990538468</v>
+        <v>96.84730905653038</v>
       </c>
       <c r="N9" t="n">
-        <v>213.6252475644925</v>
+        <v>189.9335575671761</v>
       </c>
       <c r="O9" t="n">
-        <v>306.7114960751382</v>
+        <v>283.0198060778218</v>
       </c>
       <c r="P9" t="n">
-        <v>306.7114960751382</v>
+        <v>376.1060545884675</v>
       </c>
       <c r="Q9" t="n">
         <v>376.1060545884675</v>
@@ -4908,25 +4908,25 @@
         <v>376.1060545884675</v>
       </c>
       <c r="S9" t="n">
-        <v>376.1060545884675</v>
+        <v>281.1297781772383</v>
       </c>
       <c r="T9" t="n">
-        <v>376.1060545884675</v>
+        <v>197.4746739142277</v>
       </c>
       <c r="U9" t="n">
-        <v>281.1297781772383</v>
+        <v>102.4983975029985</v>
       </c>
       <c r="V9" t="n">
-        <v>281.1297781772383</v>
+        <v>102.4983975029985</v>
       </c>
       <c r="W9" t="n">
-        <v>198.2288065670134</v>
+        <v>102.4983975029985</v>
       </c>
       <c r="X9" t="n">
-        <v>198.2288065670134</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="Y9" t="n">
-        <v>103.2525301557842</v>
+        <v>7.52212109176935</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.4983975029985</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="C10" t="n">
-        <v>102.4983975029985</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="D10" t="n">
         <v>7.52212109176935</v>
@@ -4993,19 +4993,19 @@
         <v>142.0544115820401</v>
       </c>
       <c r="U10" t="n">
-        <v>142.0544115820401</v>
+        <v>102.4983975029985</v>
       </c>
       <c r="V10" t="n">
-        <v>142.0544115820401</v>
+        <v>102.4983975029985</v>
       </c>
       <c r="W10" t="n">
         <v>102.4983975029985</v>
       </c>
       <c r="X10" t="n">
-        <v>102.4983975029985</v>
+        <v>7.52212109176935</v>
       </c>
       <c r="Y10" t="n">
-        <v>102.4983975029985</v>
+        <v>7.52212109176935</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>708.2254813732118</v>
+        <v>234.3479948767755</v>
       </c>
       <c r="C11" t="n">
-        <v>708.2254813732118</v>
+        <v>234.3479948767755</v>
       </c>
       <c r="D11" t="n">
-        <v>477.7967715208755</v>
+        <v>234.3479948767755</v>
       </c>
       <c r="E11" t="n">
-        <v>477.7967715208755</v>
+        <v>234.3479948767755</v>
       </c>
       <c r="F11" t="n">
-        <v>477.7967715208755</v>
+        <v>234.3479948767755</v>
       </c>
       <c r="G11" t="n">
         <v>234.3479948767755</v>
@@ -5063,28 +5063,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>940.5111968497478</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>940.5111968497478</v>
       </c>
       <c r="T11" t="n">
-        <v>866.5448012709784</v>
+        <v>940.5111968497478</v>
       </c>
       <c r="U11" t="n">
-        <v>866.5448012709784</v>
+        <v>814.4636877174585</v>
       </c>
       <c r="V11" t="n">
-        <v>866.5448012709784</v>
+        <v>814.4636877174585</v>
       </c>
       <c r="W11" t="n">
-        <v>866.5448012709784</v>
+        <v>589.5320212017585</v>
       </c>
       <c r="X11" t="n">
-        <v>866.5448012709784</v>
+        <v>589.5320212017585</v>
       </c>
       <c r="Y11" t="n">
-        <v>708.2254813732118</v>
+        <v>477.7967715208755</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>261.3556122688956</v>
+        <v>309.7089071412748</v>
       </c>
       <c r="C12" t="n">
-        <v>214.7395717421828</v>
+        <v>263.092866614562</v>
       </c>
       <c r="D12" t="n">
-        <v>193.6421508353458</v>
+        <v>114.1584569533107</v>
       </c>
       <c r="E12" t="n">
-        <v>162.2416845843045</v>
+        <v>82.75799070226947</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5441153656037</v>
+        <v>30.17497977318298</v>
       </c>
       <c r="G12" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5124,10 +5124,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
         <v>542.809531908403</v>
@@ -5160,10 +5160,10 @@
         <v>510.0250768685869</v>
       </c>
       <c r="X12" t="n">
-        <v>381.6572705450891</v>
+        <v>430.0105654174683</v>
       </c>
       <c r="Y12" t="n">
-        <v>301.7339605345495</v>
+        <v>350.0872554069286</v>
       </c>
     </row>
     <row r="13">
@@ -5188,61 +5188,61 @@
         <v>126.3445473451081</v>
       </c>
       <c r="G13" t="n">
-        <v>84.49367816168518</v>
+        <v>84.49367816168515</v>
       </c>
       <c r="H13" t="n">
-        <v>48.46483610050386</v>
+        <v>48.46483610050385</v>
       </c>
       <c r="I13" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>52.14858747290804</v>
+        <v>52.14858747290805</v>
       </c>
       <c r="K13" t="n">
         <v>155.3948232434854</v>
       </c>
       <c r="L13" t="n">
-        <v>308.0019809293997</v>
+        <v>308.0019809293998</v>
       </c>
       <c r="M13" t="n">
-        <v>472.4830517998232</v>
+        <v>472.4830517998233</v>
       </c>
       <c r="N13" t="n">
-        <v>641.4669351334609</v>
+        <v>641.466935133461</v>
       </c>
       <c r="O13" t="n">
-        <v>791.0992444465616</v>
+        <v>791.0992444465617</v>
       </c>
       <c r="P13" t="n">
-        <v>913.6980507970075</v>
+        <v>913.6980507970076</v>
       </c>
       <c r="Q13" t="n">
-        <v>953.6906606560314</v>
+        <v>953.6906606560315</v>
       </c>
       <c r="R13" t="n">
-        <v>902.4434156961329</v>
+        <v>902.4434156961331</v>
       </c>
       <c r="S13" t="n">
-        <v>902.4434156961329</v>
+        <v>804.0010124940097</v>
       </c>
       <c r="T13" t="n">
-        <v>902.4434156961329</v>
+        <v>764.1997650905608</v>
       </c>
       <c r="U13" t="n">
-        <v>764.199765090561</v>
+        <v>764.1997650905608</v>
       </c>
       <c r="V13" t="n">
-        <v>637.3522656390883</v>
+        <v>637.3522656390882</v>
       </c>
       <c r="W13" t="n">
-        <v>475.7720843565419</v>
+        <v>475.7720843565417</v>
       </c>
       <c r="X13" t="n">
-        <v>375.6195222129388</v>
+        <v>375.6195222129386</v>
       </c>
       <c r="Y13" t="n">
-        <v>282.6639318238228</v>
+        <v>282.6639318238227</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>665.848953328829</v>
+        <v>774.1823501169065</v>
       </c>
       <c r="C14" t="n">
-        <v>438.0745183382583</v>
+        <v>546.4079151263358</v>
       </c>
       <c r="D14" t="n">
-        <v>220.9969016813487</v>
+        <v>535.8595050325835</v>
       </c>
       <c r="E14" t="n">
-        <v>220.9969016813487</v>
+        <v>535.8595050325835</v>
       </c>
       <c r="F14" t="n">
-        <v>220.9969016813487</v>
+        <v>535.8595050325835</v>
       </c>
       <c r="G14" t="n">
-        <v>220.9969016813487</v>
+        <v>292.4107283884834</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>90.69496981734744</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5303,25 +5303,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>894.1138540400274</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>809.9525929957963</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>809.9525929957963</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>665.848953328829</v>
+        <v>774.1823501169065</v>
       </c>
       <c r="W14" t="n">
-        <v>665.848953328829</v>
+        <v>774.1823501169065</v>
       </c>
       <c r="X14" t="n">
-        <v>665.848953328829</v>
+        <v>774.1823501169065</v>
       </c>
       <c r="Y14" t="n">
-        <v>665.848953328829</v>
+        <v>774.1823501169065</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>366.0644311314796</v>
+        <v>84.44239988458344</v>
       </c>
       <c r="C15" t="n">
-        <v>191.6114018503526</v>
+        <v>51.17745255329739</v>
       </c>
       <c r="D15" t="n">
-        <v>183.8650741389423</v>
+        <v>43.43112484188707</v>
       </c>
       <c r="E15" t="n">
-        <v>24.6276191334868</v>
+        <v>25.38175178627252</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>383.2428491569326</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N15" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>881.3746713379368</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>820.3761586465438</v>
+        <v>538.7541273996477</v>
       </c>
       <c r="U15" t="n">
-        <v>733.3406223327738</v>
+        <v>451.7185910858777</v>
       </c>
       <c r="V15" t="n">
-        <v>639.3765960508721</v>
+        <v>357.754564803976</v>
       </c>
       <c r="W15" t="n">
-        <v>526.3273212725114</v>
+        <v>244.7052900256153</v>
       </c>
       <c r="X15" t="n">
-        <v>459.6639030168196</v>
+        <v>178.0418717699235</v>
       </c>
       <c r="Y15" t="n">
-        <v>393.0916862017067</v>
+        <v>111.4696549548105</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>135.3948033800101</v>
+        <v>135.3948033800103</v>
       </c>
       <c r="C16" t="n">
-        <v>107.6467024019442</v>
+        <v>107.6467024019443</v>
       </c>
       <c r="D16" t="n">
-        <v>98.71814493944942</v>
+        <v>98.71814493944956</v>
       </c>
       <c r="E16" t="n">
-        <v>91.99313330689726</v>
+        <v>91.99313330689741</v>
       </c>
       <c r="F16" t="n">
-        <v>86.29126775882787</v>
+        <v>86.29126775882801</v>
       </c>
       <c r="G16" t="n">
-        <v>57.79149177083169</v>
+        <v>57.79149177083183</v>
       </c>
       <c r="H16" t="n">
-        <v>35.11374290507711</v>
+        <v>35.11374290507725</v>
       </c>
       <c r="I16" t="n">
         <v>19.28114311021272</v>
@@ -5440,13 +5440,13 @@
         <v>181.5656361251609</v>
       </c>
       <c r="L16" t="n">
-        <v>347.258200251913</v>
+        <v>252.9414435798157</v>
       </c>
       <c r="M16" t="n">
-        <v>524.8246775631743</v>
+        <v>430.507920891077</v>
       </c>
       <c r="N16" t="n">
-        <v>706.8939673376497</v>
+        <v>612.5772106655525</v>
       </c>
       <c r="O16" t="n">
         <v>775.2949264194908</v>
@@ -5464,22 +5464,22 @@
         <v>841.0696937394678</v>
       </c>
       <c r="T16" t="n">
-        <v>752.0097055597313</v>
+        <v>752.0097055597314</v>
       </c>
       <c r="U16" t="n">
-        <v>603.98664674544</v>
+        <v>603.9866467454401</v>
       </c>
       <c r="V16" t="n">
-        <v>490.4902404893941</v>
+        <v>490.4902404893942</v>
       </c>
       <c r="W16" t="n">
-        <v>342.2611524022744</v>
+        <v>342.2611524022745</v>
       </c>
       <c r="X16" t="n">
-        <v>255.459683454098</v>
+        <v>255.4596834540982</v>
       </c>
       <c r="Y16" t="n">
-        <v>175.8551862604089</v>
+        <v>175.855186260409</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>90.69496981734744</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>90.69496981734744</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>90.69496981734744</v>
       </c>
       <c r="E17" t="n">
-        <v>720.6083788665362</v>
+        <v>90.69496981734744</v>
       </c>
       <c r="F17" t="n">
-        <v>477.1596022224361</v>
+        <v>90.69496981734744</v>
       </c>
       <c r="G17" t="n">
-        <v>233.7108255783361</v>
+        <v>90.69496981734744</v>
       </c>
       <c r="H17" t="n">
         <v>90.69496981734744</v>
@@ -5549,16 +5549,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>809.8701994167865</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>809.8701994167865</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.5925231055476</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>334.1437464614475</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>363.6071745990232</v>
+        <v>416.5176527046888</v>
       </c>
       <c r="C18" t="n">
-        <v>330.3422272677371</v>
+        <v>332.7994838001936</v>
       </c>
       <c r="D18" t="n">
-        <v>322.5958995563268</v>
+        <v>183.8650741389423</v>
       </c>
       <c r="E18" t="n">
-        <v>163.3584445508713</v>
+        <v>24.6276191334868</v>
       </c>
       <c r="F18" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
         <v>19.28114311021272</v>
@@ -5595,13 +5595,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
         <v>473.4149733950735</v>
@@ -5619,25 +5619,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>878.9174148054803</v>
+        <v>931.827892911146</v>
       </c>
       <c r="T18" t="n">
-        <v>817.9189021140874</v>
+        <v>870.829380219753</v>
       </c>
       <c r="U18" t="n">
-        <v>730.8833658003174</v>
+        <v>783.7938439059831</v>
       </c>
       <c r="V18" t="n">
-        <v>636.9193395184157</v>
+        <v>689.8298176240813</v>
       </c>
       <c r="W18" t="n">
-        <v>523.870064740055</v>
+        <v>576.7805428457207</v>
       </c>
       <c r="X18" t="n">
-        <v>457.2066464843631</v>
+        <v>510.1171245900288</v>
       </c>
       <c r="Y18" t="n">
-        <v>390.6344296692502</v>
+        <v>443.5449077749159</v>
       </c>
     </row>
     <row r="19">
@@ -5680,10 +5680,10 @@
         <v>347.258200251913</v>
       </c>
       <c r="M19" t="n">
-        <v>524.8246775631743</v>
+        <v>430.507920891077</v>
       </c>
       <c r="N19" t="n">
-        <v>706.8939673376497</v>
+        <v>612.5772106655525</v>
       </c>
       <c r="O19" t="n">
         <v>775.2949264194908</v>
@@ -5704,13 +5704,13 @@
         <v>752.0097055597316</v>
       </c>
       <c r="U19" t="n">
-        <v>603.9866467454401</v>
+        <v>603.9866467454403</v>
       </c>
       <c r="V19" t="n">
-        <v>490.4902404893942</v>
+        <v>490.4902404893944</v>
       </c>
       <c r="W19" t="n">
-        <v>342.2611524022745</v>
+        <v>342.2611524022748</v>
       </c>
       <c r="X19" t="n">
         <v>255.4596834540982</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>220.9969016813487</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>220.9969016813487</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>220.9969016813487</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>220.9969016813487</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>220.9969016813487</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>220.9969016813487</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5750,7 +5750,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K20" t="n">
         <v>122.2961490211351</v>
@@ -5786,16 +5786,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>919.475028289822</v>
       </c>
       <c r="W20" t="n">
-        <v>752.476582190363</v>
+        <v>707.8944549695489</v>
       </c>
       <c r="X20" t="n">
-        <v>520.1989058791241</v>
+        <v>707.8944549695489</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>464.4456783254487</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>338.2454847740594</v>
+        <v>288.1111646198476</v>
       </c>
       <c r="C21" t="n">
-        <v>304.9805374427733</v>
+        <v>254.8462172885616</v>
       </c>
       <c r="D21" t="n">
-        <v>156.046127781522</v>
+        <v>247.0998895771513</v>
       </c>
       <c r="E21" t="n">
-        <v>137.9967547259075</v>
+        <v>229.0505165215367</v>
       </c>
       <c r="F21" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>853.5557249805166</v>
+        <v>931.827892911146</v>
       </c>
       <c r="T21" t="n">
-        <v>792.5572122891236</v>
+        <v>870.829380219753</v>
       </c>
       <c r="U21" t="n">
-        <v>705.5216759753537</v>
+        <v>783.7938439059831</v>
       </c>
       <c r="V21" t="n">
-        <v>611.5576496934519</v>
+        <v>561.4233295392402</v>
       </c>
       <c r="W21" t="n">
-        <v>498.5083749150912</v>
+        <v>448.3740547608795</v>
       </c>
       <c r="X21" t="n">
-        <v>431.8449566593994</v>
+        <v>381.7106365051876</v>
       </c>
       <c r="Y21" t="n">
-        <v>365.2727398442864</v>
+        <v>315.1384196900747</v>
       </c>
     </row>
     <row r="22">
@@ -5914,13 +5914,13 @@
         <v>181.5656361251609</v>
       </c>
       <c r="L22" t="n">
-        <v>252.9414435798156</v>
+        <v>347.258200251913</v>
       </c>
       <c r="M22" t="n">
-        <v>430.5079208910769</v>
+        <v>524.8246775631743</v>
       </c>
       <c r="N22" t="n">
-        <v>612.5772106655523</v>
+        <v>706.8939673376497</v>
       </c>
       <c r="O22" t="n">
         <v>775.2949264194907</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1096.877376607009</v>
+        <v>825.3675719813147</v>
       </c>
       <c r="C23" t="n">
-        <v>1096.877376607009</v>
+        <v>597.5931369907439</v>
       </c>
       <c r="D23" t="n">
-        <v>1096.877376607009</v>
+        <v>553.9499684889711</v>
       </c>
       <c r="E23" t="n">
-        <v>852.2772059586051</v>
+        <v>309.3497978405678</v>
       </c>
       <c r="F23" t="n">
-        <v>582.4793831188385</v>
+        <v>309.3497978405678</v>
       </c>
       <c r="G23" t="n">
-        <v>304.1697504069268</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="H23" t="n">
-        <v>102.4539918357908</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="I23" t="n">
         <v>31.0401651286561</v>
@@ -5990,16 +5990,16 @@
         <v>157.5888077866288</v>
       </c>
       <c r="K23" t="n">
-        <v>305.0027248085859</v>
+        <v>260.6038136975512</v>
       </c>
       <c r="L23" t="n">
-        <v>623.4570155122835</v>
+        <v>440.6796652822097</v>
       </c>
       <c r="M23" t="n">
-        <v>978.8110818942268</v>
+        <v>702.0542036561485</v>
       </c>
       <c r="N23" t="n">
-        <v>1184.665604101466</v>
+        <v>1046.287164982427</v>
       </c>
       <c r="O23" t="n">
         <v>1333.860554244114</v>
@@ -6017,22 +6017,22 @@
         <v>1552.008256432805</v>
       </c>
       <c r="T23" t="n">
-        <v>1540.735626238521</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="U23" t="n">
-        <v>1540.735626238521</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="V23" t="n">
-        <v>1540.735626238521</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="W23" t="n">
-        <v>1329.155052918247</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="X23" t="n">
-        <v>1096.877376607009</v>
+        <v>1319.730580121566</v>
       </c>
       <c r="Y23" t="n">
-        <v>1096.877376607009</v>
+        <v>1070.779330095595</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>798.9304424669893</v>
+        <v>95.44728925024111</v>
       </c>
       <c r="C24" t="n">
-        <v>624.4774131858624</v>
+        <v>62.18234191895505</v>
       </c>
       <c r="D24" t="n">
-        <v>475.5430035246112</v>
+        <v>54.43601420754473</v>
       </c>
       <c r="E24" t="n">
-        <v>316.3055485191556</v>
+        <v>36.38664115193018</v>
       </c>
       <c r="F24" t="n">
-        <v>169.7709905460406</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="G24" t="n">
         <v>31.0401651286561</v>
@@ -6093,25 +6093,25 @@
         <v>1552.008256432805</v>
       </c>
       <c r="S24" t="n">
-        <v>1519.778993833315</v>
+        <v>1378.590911883474</v>
       </c>
       <c r="T24" t="n">
-        <v>1394.430251931895</v>
+        <v>1176.40431724224</v>
       </c>
       <c r="U24" t="n">
-        <v>1307.394715618125</v>
+        <v>948.1806989786289</v>
       </c>
       <c r="V24" t="n">
-        <v>1213.430689336223</v>
+        <v>713.0285907468863</v>
       </c>
       <c r="W24" t="n">
-        <v>1100.381414557862</v>
+        <v>458.7912340186846</v>
       </c>
       <c r="X24" t="n">
-        <v>1033.71799630217</v>
+        <v>250.9397338131518</v>
       </c>
       <c r="Y24" t="n">
-        <v>967.1457794870573</v>
+        <v>122.4745443204682</v>
       </c>
     </row>
     <row r="25">
@@ -6145,13 +6145,13 @@
         <v>31.0401651286561</v>
       </c>
       <c r="J25" t="n">
-        <v>31.0401651286561</v>
+        <v>76.99301593218917</v>
       </c>
       <c r="K25" t="n">
-        <v>99.00790147150693</v>
+        <v>193.3246581436043</v>
       </c>
       <c r="L25" t="n">
-        <v>264.700465598259</v>
+        <v>359.0172222703563</v>
       </c>
       <c r="M25" t="n">
         <v>442.2669429095203</v>
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>608.5730059935075</v>
+        <v>1238.17047866705</v>
       </c>
       <c r="C26" t="n">
-        <v>608.5730059935075</v>
+        <v>1238.17047866705</v>
       </c>
       <c r="D26" t="n">
-        <v>608.5730059935075</v>
+        <v>1238.17047866705</v>
       </c>
       <c r="E26" t="n">
-        <v>608.5730059935075</v>
+        <v>957.975229578914</v>
       </c>
       <c r="F26" t="n">
-        <v>303.1801047140079</v>
+        <v>652.5823282994143</v>
       </c>
       <c r="G26" t="n">
-        <v>31.0401651286561</v>
+        <v>338.6776171477696</v>
       </c>
       <c r="H26" t="n">
-        <v>31.0401651286561</v>
+        <v>101.3667801369006</v>
       </c>
       <c r="I26" t="n">
         <v>31.0401651286561</v>
       </c>
       <c r="J26" t="n">
-        <v>122.7020714078462</v>
+        <v>122.7020714078466</v>
       </c>
       <c r="K26" t="n">
-        <v>329.2087800590253</v>
+        <v>329.2087800590257</v>
       </c>
       <c r="L26" t="n">
-        <v>509.284631643684</v>
+        <v>509.2846316436843</v>
       </c>
       <c r="M26" t="n">
-        <v>726.2602589065881</v>
+        <v>726.2602589065884</v>
       </c>
       <c r="N26" t="n">
-        <v>1035.606483854084</v>
+        <v>1012.568934999735</v>
       </c>
       <c r="O26" t="n">
         <v>1265.25558788264</v>
       </c>
       <c r="P26" t="n">
-        <v>1458.407345914947</v>
+        <v>1458.407345914948</v>
       </c>
       <c r="Q26" t="n">
         <v>1552.008256432805</v>
@@ -6257,19 +6257,19 @@
         <v>1386.461973043646</v>
       </c>
       <c r="U26" t="n">
-        <v>1386.461973043646</v>
+        <v>1238.17047866705</v>
       </c>
       <c r="V26" t="n">
-        <v>1160.992089210183</v>
+        <v>1238.17047866705</v>
       </c>
       <c r="W26" t="n">
-        <v>1160.992089210183</v>
+        <v>1238.17047866705</v>
       </c>
       <c r="X26" t="n">
-        <v>893.1193344592114</v>
+        <v>1238.17047866705</v>
       </c>
       <c r="Y26" t="n">
-        <v>608.5730059935075</v>
+        <v>1238.17047866705</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>489.9275640189783</v>
+        <v>278.7415569987628</v>
       </c>
       <c r="C27" t="n">
-        <v>421.0675382479592</v>
+        <v>209.8815312277434</v>
       </c>
       <c r="D27" t="n">
-        <v>377.7261320968159</v>
+        <v>166.5401250766001</v>
       </c>
       <c r="E27" t="n">
-        <v>218.4886770913604</v>
+        <v>112.8956735812525</v>
       </c>
       <c r="F27" t="n">
-        <v>177.5471226283533</v>
+        <v>71.95411911824539</v>
       </c>
       <c r="G27" t="n">
-        <v>144.4093007210768</v>
+        <v>38.81629721096886</v>
       </c>
       <c r="H27" t="n">
         <v>31.0401651286561</v>
@@ -6336,19 +6336,19 @@
         <v>1387.590324262456</v>
       </c>
       <c r="U27" t="n">
-        <v>1159.366705998845</v>
+        <v>1264.959709508953</v>
       </c>
       <c r="V27" t="n">
         <v>1029.80760127721</v>
       </c>
       <c r="W27" t="n">
-        <v>881.1632480591162</v>
+        <v>775.5702445490083</v>
       </c>
       <c r="X27" t="n">
-        <v>673.3117478535834</v>
+        <v>567.7187443434755</v>
       </c>
       <c r="Y27" t="n">
-        <v>552.5498975289383</v>
+        <v>446.9568940188308</v>
       </c>
     </row>
     <row r="28">
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>204.8355250964703</v>
+        <v>158.4781989741843</v>
       </c>
       <c r="C28" t="n">
-        <v>204.8355250964703</v>
+        <v>95.13501955638532</v>
       </c>
       <c r="D28" t="n">
-        <v>204.8355250964703</v>
+        <v>95.13501955638532</v>
       </c>
       <c r="E28" t="n">
-        <v>204.8355250964703</v>
+        <v>95.13501955638532</v>
       </c>
       <c r="F28" t="n">
-        <v>204.8355250964703</v>
+        <v>95.13501955638532</v>
       </c>
       <c r="G28" t="n">
-        <v>140.7406706687411</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="H28" t="n">
-        <v>82.46784336325351</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="I28" t="n">
         <v>31.0401651286561</v>
       </c>
       <c r="J28" t="n">
-        <v>42.10627955340684</v>
+        <v>42.10627955340682</v>
       </c>
       <c r="K28" t="n">
         <v>123.5511853860396</v>
@@ -6406,28 +6406,28 @@
         <v>791.0390431709179</v>
       </c>
       <c r="R28" t="n">
-        <v>717.5478129667132</v>
+        <v>791.0390431709179</v>
       </c>
       <c r="S28" t="n">
-        <v>596.8614245202834</v>
+        <v>704.5535551418379</v>
       </c>
       <c r="T28" t="n">
-        <v>472.2063579008141</v>
+        <v>579.8984885223686</v>
       </c>
       <c r="U28" t="n">
-        <v>288.5882206467898</v>
+        <v>579.8984885223686</v>
       </c>
       <c r="V28" t="n">
-        <v>204.8355250964703</v>
+        <v>579.8984885223686</v>
       </c>
       <c r="W28" t="n">
-        <v>204.8355250964703</v>
+        <v>396.0743219955159</v>
       </c>
       <c r="X28" t="n">
-        <v>204.8355250964703</v>
+        <v>273.6777746076065</v>
       </c>
       <c r="Y28" t="n">
-        <v>204.8355250964703</v>
+        <v>158.4781989741843</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>313.3059048785907</v>
+        <v>587.0598347563803</v>
       </c>
       <c r="C29" t="n">
-        <v>313.3059048785907</v>
+        <v>587.0598347563803</v>
       </c>
       <c r="D29" t="n">
-        <v>313.3059048785907</v>
+        <v>587.0598347563803</v>
       </c>
       <c r="E29" t="n">
-        <v>313.3059048785907</v>
+        <v>587.0598347563803</v>
       </c>
       <c r="F29" t="n">
         <v>313.3059048785907</v>
@@ -6464,22 +6464,22 @@
         <v>153.7114272786625</v>
       </c>
       <c r="K29" t="n">
-        <v>316.6348663324848</v>
+        <v>391.2274918006577</v>
       </c>
       <c r="L29" t="n">
-        <v>631.2117765282162</v>
+        <v>621.320984305817</v>
       </c>
       <c r="M29" t="n">
-        <v>982.6884624021932</v>
+        <v>838.2966115687211</v>
       </c>
       <c r="N29" t="n">
-        <v>1188.542984609433</v>
+        <v>1178.652192387033</v>
       </c>
       <c r="O29" t="n">
-        <v>1337.73793475208</v>
+        <v>1462.348201140754</v>
       </c>
       <c r="P29" t="n">
-        <v>1427.397990044131</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="Q29" t="n">
         <v>1552.008256432805</v>
@@ -6488,25 +6488,25 @@
         <v>1552.008256432805</v>
       </c>
       <c r="S29" t="n">
-        <v>1478.108847924173</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="T29" t="n">
-        <v>1389.991479841919</v>
+        <v>1463.890888350551</v>
       </c>
       <c r="U29" t="n">
-        <v>1273.338956867034</v>
+        <v>1347.238365375666</v>
       </c>
       <c r="V29" t="n">
-        <v>1079.508044435281</v>
+        <v>1153.407452943913</v>
       </c>
       <c r="W29" t="n">
-        <v>863.9713640769852</v>
+        <v>937.8707725856169</v>
       </c>
       <c r="X29" t="n">
-        <v>627.7375807277234</v>
+        <v>839.967191820374</v>
       </c>
       <c r="Y29" t="n">
-        <v>374.8302236637297</v>
+        <v>587.0598347563803</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>322.7224682282878</v>
+        <v>698.3559474990383</v>
       </c>
       <c r="C30" t="n">
-        <v>285.5014138589788</v>
+        <v>661.1348931297293</v>
       </c>
       <c r="D30" t="n">
-        <v>273.7989791095456</v>
+        <v>649.4324583802961</v>
       </c>
       <c r="E30" t="n">
-        <v>132.8953604911488</v>
+        <v>519.9743132544198</v>
       </c>
       <c r="F30" t="n">
-        <v>123.5927774298518</v>
+        <v>373.4397552813048</v>
       </c>
       <c r="G30" t="n">
-        <v>122.0939269242853</v>
+        <v>234.7089298639203</v>
       </c>
       <c r="H30" t="n">
-        <v>122.0939269242853</v>
+        <v>121.3397942714996</v>
       </c>
       <c r="I30" t="n">
-        <v>31.79429778144181</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="J30" t="n">
         <v>31.0401651286561</v>
@@ -6564,28 +6564,28 @@
         <v>1552.008256432805</v>
       </c>
       <c r="R30" t="n">
-        <v>1450.838726985691</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="S30" t="n">
-        <v>1277.42138243636</v>
+        <v>1515.822886795292</v>
       </c>
       <c r="T30" t="n">
-        <v>1075.234787795126</v>
+        <v>1450.868267065876</v>
       </c>
       <c r="U30" t="n">
-        <v>984.2431444433328</v>
+        <v>1359.876623714083</v>
       </c>
       <c r="V30" t="n">
-        <v>749.0910362115901</v>
+        <v>1124.72451548234</v>
       </c>
       <c r="W30" t="n">
-        <v>494.8536794833885</v>
+        <v>870.4871587541388</v>
       </c>
       <c r="X30" t="n">
-        <v>424.2341541896737</v>
+        <v>799.867633460424</v>
       </c>
       <c r="Y30" t="n">
-        <v>353.7058303365378</v>
+        <v>729.3393096072882</v>
       </c>
     </row>
     <row r="31">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>724.4876896226115</v>
+        <v>898.4254766435431</v>
       </c>
       <c r="C32" t="n">
-        <v>563.1638847924645</v>
+        <v>737.1016718133961</v>
       </c>
       <c r="D32" t="n">
-        <v>412.5368982959786</v>
+        <v>586.4746853169103</v>
       </c>
       <c r="E32" t="n">
-        <v>234.387357807999</v>
+        <v>586.4746853169103</v>
       </c>
       <c r="F32" t="n">
-        <v>31.0401651286561</v>
+        <v>383.1274926375673</v>
       </c>
       <c r="G32" t="n">
-        <v>31.0401651286561</v>
+        <v>171.2684900860794</v>
       </c>
       <c r="H32" t="n">
-        <v>31.0401651286561</v>
+        <v>36.00336167536713</v>
       </c>
       <c r="I32" t="n">
         <v>31.0401651286561</v>
       </c>
       <c r="J32" t="n">
-        <v>222.7170704068601</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="K32" t="n">
-        <v>325.7320763177825</v>
+        <v>134.0551710395785</v>
       </c>
       <c r="L32" t="n">
-        <v>709.3146296417115</v>
+        <v>314.1310226242371</v>
       </c>
       <c r="M32" t="n">
-        <v>926.2902569046156</v>
+        <v>531.1066498871412</v>
       </c>
       <c r="N32" t="n">
-        <v>1132.144779111855</v>
+        <v>860.8943647644326</v>
       </c>
       <c r="O32" t="n">
-        <v>1281.339729254503</v>
+        <v>1213.596016646351</v>
       </c>
       <c r="P32" t="n">
-        <v>1370.999784546554</v>
+        <v>1303.256071938402</v>
       </c>
       <c r="Q32" t="n">
         <v>1496.871981455273</v>
@@ -6725,25 +6725,25 @@
         <v>1552.008256432805</v>
       </c>
       <c r="S32" t="n">
-        <v>1552.008256432805</v>
+        <v>1548.51558512262</v>
       </c>
       <c r="T32" t="n">
-        <v>1534.297625548998</v>
+        <v>1530.804954238812</v>
       </c>
       <c r="U32" t="n">
-        <v>1520.330601985987</v>
+        <v>1484.559168462373</v>
       </c>
       <c r="V32" t="n">
-        <v>1396.906426752681</v>
+        <v>1361.134993229068</v>
       </c>
       <c r="W32" t="n">
-        <v>1251.776483592831</v>
+        <v>1259.887224462947</v>
       </c>
       <c r="X32" t="n">
-        <v>1085.949437442016</v>
+        <v>1259.887224462947</v>
       </c>
       <c r="Y32" t="n">
-        <v>903.4488175764686</v>
+        <v>1077.3866045974</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>190.2776201341116</v>
+        <v>179.9745747899074</v>
       </c>
       <c r="C33" t="n">
-        <v>190.2776201341116</v>
+        <v>179.9745747899074</v>
       </c>
       <c r="D33" t="n">
-        <v>190.2776201341116</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="E33" t="n">
         <v>31.0401651286561</v>
@@ -6801,28 +6801,28 @@
         <v>1552.008256432805</v>
       </c>
       <c r="R33" t="n">
-        <v>1450.838726985691</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="S33" t="n">
-        <v>1277.42138243636</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="T33" t="n">
-        <v>1075.234787795126</v>
+        <v>1481.414794004017</v>
       </c>
       <c r="U33" t="n">
-        <v>847.0111695315147</v>
+        <v>1253.191175740406</v>
       </c>
       <c r="V33" t="n">
-        <v>611.8590612997721</v>
+        <v>1018.039067508664</v>
       </c>
       <c r="W33" t="n">
-        <v>357.6217045715704</v>
+        <v>763.8017107804621</v>
       </c>
       <c r="X33" t="n">
-        <v>190.3992067888009</v>
+        <v>555.9502105749293</v>
       </c>
       <c r="Y33" t="n">
-        <v>190.2776201341116</v>
+        <v>348.1899118099754</v>
       </c>
     </row>
     <row r="34">
@@ -6859,7 +6859,7 @@
         <v>31.0401651286561</v>
       </c>
       <c r="K34" t="n">
-        <v>181.6592810011749</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="L34" t="n">
         <v>208.9734060088879</v>
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>595.8111431711907</v>
+        <v>574.7156632984669</v>
       </c>
       <c r="C35" t="n">
-        <v>434.4873383410436</v>
+        <v>574.7156632984669</v>
       </c>
       <c r="D35" t="n">
-        <v>434.4873383410436</v>
+        <v>574.7156632984669</v>
       </c>
       <c r="E35" t="n">
-        <v>434.4873383410436</v>
+        <v>574.7156632984669</v>
       </c>
       <c r="F35" t="n">
-        <v>231.1401456617007</v>
+        <v>371.368470619124</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>159.509468067636</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>24.24433965692375</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K35" t="n">
         <v>122.2961490211351</v>
@@ -6962,25 +6962,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>960.564484200451</v>
       </c>
       <c r="T35" t="n">
-        <v>946.3465246268288</v>
+        <v>942.8538533166436</v>
       </c>
       <c r="U35" t="n">
-        <v>946.3465246268288</v>
+        <v>896.6080675402047</v>
       </c>
       <c r="V35" t="n">
-        <v>923.4417061965872</v>
+        <v>773.1838923068988</v>
       </c>
       <c r="W35" t="n">
-        <v>778.3117630367377</v>
+        <v>628.0539491470493</v>
       </c>
       <c r="X35" t="n">
-        <v>778.3117630367377</v>
+        <v>574.7156632984669</v>
       </c>
       <c r="Y35" t="n">
-        <v>595.8111431711907</v>
+        <v>574.7156632984669</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>49.25956551096046</v>
+        <v>382.1873628509324</v>
       </c>
       <c r="C36" t="n">
-        <v>49.25956551096046</v>
+        <v>382.1873628509324</v>
       </c>
       <c r="D36" t="n">
-        <v>49.25956551096046</v>
+        <v>382.1873628509324</v>
       </c>
       <c r="E36" t="n">
-        <v>49.25956551096046</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F36" t="n">
-        <v>49.25956551096046</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G36" t="n">
-        <v>49.25956551096046</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7017,19 +7017,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>621.8469951458151</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>860.4511411346975</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7044,22 +7044,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>892.4961087141805</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>871.9112025608342</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>636.7590943290916</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>590.1604497111546</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>382.3089495056217</v>
       </c>
       <c r="Y36" t="n">
-        <v>49.25956551096046</v>
+        <v>382.1873628509324</v>
       </c>
     </row>
     <row r="37">
@@ -7075,40 +7075,40 @@
         <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>75.65852656145287</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>75.65852656145287</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>75.65852656145287</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>75.65852656145287</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>75.65852656145287</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>125.2692581227375</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>169.9002589827315</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>169.9002589827315</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>197.2143839904445</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>236.4024221826667</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>280.093272838103</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>304.4325494730023</v>
       </c>
       <c r="P37" t="n">
         <v>304.4325494730023</v>
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>781.5565356450892</v>
+        <v>397.4271470385587</v>
       </c>
       <c r="C38" t="n">
-        <v>695.1818010568784</v>
+        <v>236.1033422084117</v>
       </c>
       <c r="D38" t="n">
-        <v>544.5548145603925</v>
+        <v>236.1033422084117</v>
       </c>
       <c r="E38" t="n">
-        <v>366.405274072413</v>
+        <v>236.1033422084117</v>
       </c>
       <c r="F38" t="n">
-        <v>366.405274072413</v>
+        <v>236.1033422084117</v>
       </c>
       <c r="G38" t="n">
-        <v>154.546271520925</v>
+        <v>24.24433965692375</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>24.24433965692375</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K38" t="n">
         <v>122.2961490211351</v>
@@ -7205,19 +7205,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>924.7159410087781</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>924.7159410087781</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>924.7159410087781</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>758.8888948579629</v>
       </c>
       <c r="Y38" t="n">
-        <v>781.5565356450892</v>
+        <v>576.3882749924159</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>934.0787331098884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>934.0787331098884</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>934.0787331098884</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>705.8551148462775</v>
+        <v>448.6549613357506</v>
       </c>
       <c r="V39" t="n">
-        <v>470.7030066145348</v>
+        <v>421.1415652142725</v>
       </c>
       <c r="W39" t="n">
-        <v>227.2542299704348</v>
+        <v>374.5429205963355</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>166.6914203908027</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
     </row>
     <row r="40">
@@ -7312,43 +7312,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>51.6939800626386</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>51.6939800626386</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>51.6939800626386</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>51.6939800626386</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>51.6939800626386</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>51.6939800626386</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>51.6939800626386</v>
       </c>
       <c r="K40" t="n">
-        <v>169.9002589827315</v>
+        <v>51.6939800626386</v>
       </c>
       <c r="L40" t="n">
-        <v>197.2143839904445</v>
+        <v>79.00810507035158</v>
       </c>
       <c r="M40" t="n">
-        <v>236.4024221826667</v>
+        <v>118.1961432625738</v>
       </c>
       <c r="N40" t="n">
-        <v>280.093272838103</v>
+        <v>161.8869939180101</v>
       </c>
       <c r="O40" t="n">
-        <v>304.4325494730023</v>
+        <v>186.2262705529093</v>
       </c>
       <c r="P40" t="n">
-        <v>304.4325494730023</v>
+        <v>186.2262705529093</v>
       </c>
       <c r="Q40" t="n">
         <v>304.4325494730023</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>490.2369584797062</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>490.2369584797062</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>490.2369584797062</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>490.2369584797062</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>246.7881818356062</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>246.7881818356062</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>928.0710098909169</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>832.3364282660505</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="W41" t="n">
-        <v>726.6853020361056</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>733.6857351238064</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>210.1874114706286</v>
+        <v>210.1874114706287</v>
       </c>
       <c r="C42" t="n">
-        <v>151.131183985085</v>
+        <v>151.1311839850851</v>
       </c>
       <c r="D42" t="n">
         <v>117.5935761194174</v>
       </c>
       <c r="E42" t="n">
-        <v>73.7529229095453</v>
+        <v>73.75292290954533</v>
       </c>
       <c r="F42" t="n">
-        <v>42.61516673201373</v>
+        <v>42.61516673201376</v>
       </c>
       <c r="G42" t="n">
         <v>19.28114311021272</v>
@@ -7494,19 +7494,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7521,16 +7521,16 @@
         <v>819.246819911238</v>
       </c>
       <c r="U42" t="n">
-        <v>706.4200034432106</v>
+        <v>706.4200034432104</v>
       </c>
       <c r="V42" t="n">
-        <v>586.664697007051</v>
+        <v>586.6646970070512</v>
       </c>
       <c r="W42" t="n">
-        <v>447.824142074433</v>
+        <v>447.8241420744331</v>
       </c>
       <c r="X42" t="n">
-        <v>355.3694436644837</v>
+        <v>355.3694436644838</v>
       </c>
       <c r="Y42" t="n">
         <v>263.0059466951132</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>315.9337644598126</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>262.3943833274892</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>227.6745457107369</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>195.1582539239272</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>163.6651082216003</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>109.3740520793467</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>60.9050230593346</v>
       </c>
       <c r="I43" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>39.95596023455803</v>
+        <v>39.95596023455802</v>
       </c>
       <c r="K43" t="n">
-        <v>131.0095687667854</v>
+        <v>131.0095687667853</v>
       </c>
       <c r="L43" t="n">
         <v>271.4240992143497</v>
@@ -7579,40 +7579,40 @@
         <v>423.7125428464232</v>
       </c>
       <c r="N43" t="n">
-        <v>580.5037989417109</v>
+        <v>580.5037989417108</v>
       </c>
       <c r="O43" t="n">
-        <v>717.9434810164615</v>
+        <v>717.9434810164614</v>
       </c>
       <c r="P43" t="n">
-        <v>828.3496601285574</v>
+        <v>828.3496601285573</v>
       </c>
       <c r="Q43" t="n">
-        <v>856.1496427492314</v>
+        <v>856.1496427492311</v>
       </c>
       <c r="R43" t="n">
-        <v>856.1496427492314</v>
+        <v>856.1496427492311</v>
       </c>
       <c r="S43" t="n">
-        <v>745.2670525882772</v>
+        <v>856.1496427492311</v>
       </c>
       <c r="T43" t="n">
-        <v>630.4157842542834</v>
+        <v>856.1496427492311</v>
       </c>
       <c r="U43" t="n">
-        <v>456.6014452857347</v>
+        <v>856.1496427492311</v>
       </c>
       <c r="V43" t="n">
-        <v>317.3137588754313</v>
+        <v>774.1943221862265</v>
       </c>
       <c r="W43" t="n">
-        <v>143.2933906340542</v>
+        <v>600.1739539448494</v>
       </c>
       <c r="X43" t="n">
-        <v>30.70064153162031</v>
+        <v>487.5812048424155</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>382.1854274944689</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C44" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D44" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E44" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7682,16 +7682,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W44" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X44" t="n">
         <v>477.1596022224361</v>
       </c>
       <c r="Y44" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>97.80881557301737</v>
+        <v>455.0306264007099</v>
       </c>
       <c r="C45" t="n">
-        <v>97.80881557301737</v>
+        <v>350.9843343180295</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>272.4566618552248</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>183.6259440482159</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>107.4981232735475</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>39.17403505460963</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>39.17403505460963</v>
       </c>
       <c r="I45" t="n">
         <v>19.28114311021272</v>
@@ -7731,13 +7731,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O45" t="n">
         <v>894.6625969973069</v>
@@ -7749,28 +7749,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>933.2943632619686</v>
       </c>
       <c r="S45" t="n">
-        <v>861.0465481597518</v>
+        <v>854.9381588221347</v>
       </c>
       <c r="T45" t="n">
-        <v>729.2666907169644</v>
+        <v>854.9381588221347</v>
       </c>
       <c r="U45" t="n">
-        <v>729.2666907169644</v>
+        <v>854.9381588221347</v>
       </c>
       <c r="V45" t="n">
-        <v>564.5213196836683</v>
+        <v>690.1927877888386</v>
       </c>
       <c r="W45" t="n">
-        <v>470.4157399682323</v>
+        <v>690.1927877888386</v>
       </c>
       <c r="X45" t="n">
-        <v>332.9709769611461</v>
+        <v>690.1927877888386</v>
       </c>
       <c r="Y45" t="n">
-        <v>195.6174153946388</v>
+        <v>552.8392262223313</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>147.8349029150163</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>147.8349029150163</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>147.8349029150163</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>147.8349029150163</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>147.8349029150163</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>48.55378217562576</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>48.55378217562576</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
         <v>19.28114311021272</v>
@@ -7807,49 +7807,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>66.23998933078624</v>
+        <v>66.23998933078622</v>
       </c>
       <c r="L46" t="n">
         <v>162.5597574666967</v>
       </c>
       <c r="M46" t="n">
-        <v>270.7534387871165</v>
+        <v>270.7534387871164</v>
       </c>
       <c r="N46" t="n">
-        <v>383.4499325707503</v>
+        <v>383.4499325707502</v>
       </c>
       <c r="O46" t="n">
-        <v>476.7948523338471</v>
+        <v>476.794852333847</v>
       </c>
       <c r="P46" t="n">
-        <v>543.1062691342893</v>
+        <v>543.1062691342891</v>
       </c>
       <c r="Q46" t="n">
-        <v>526.4806394118325</v>
+        <v>543.1062691342891</v>
       </c>
       <c r="R46" t="n">
-        <v>526.4806394118325</v>
+        <v>543.1062691342891</v>
       </c>
       <c r="S46" t="n">
-        <v>526.4806394118325</v>
+        <v>543.1062691342891</v>
       </c>
       <c r="T46" t="n">
-        <v>366.6393064807019</v>
+        <v>543.1062691342891</v>
       </c>
       <c r="U46" t="n">
-        <v>147.8349029150163</v>
+        <v>422.5693269561671</v>
       </c>
       <c r="V46" t="n">
-        <v>147.8349029150163</v>
+        <v>238.2915759487267</v>
       </c>
       <c r="W46" t="n">
-        <v>147.8349029150163</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>147.8349029150163</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>147.8349029150163</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7982,16 +7982,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>329.4546787915587</v>
       </c>
       <c r="M2" t="n">
-        <v>324.0344970488442</v>
+        <v>324.3727468743896</v>
       </c>
       <c r="N2" t="n">
         <v>323.4395772437078</v>
       </c>
       <c r="O2" t="n">
-        <v>324.1247250688036</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>231.8679526214759</v>
+        <v>157.9733879151991</v>
       </c>
       <c r="L3" t="n">
-        <v>232.5808934269911</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>236.1605475691352</v>
       </c>
       <c r="N3" t="n">
-        <v>221.569174674001</v>
+        <v>225.3682257304502</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>236.6227580915613</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,19 +8216,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>313.778114866552</v>
+        <v>314.1163646920974</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>329.7929286171041</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>324.0344970488442</v>
       </c>
       <c r="N5" t="n">
-        <v>323.4395772437078</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>324.1247250688036</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>231.8679526214759</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>232.5808934269911</v>
@@ -8304,13 +8304,13 @@
         <v>236.1605475691352</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>221.569174674001</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>236.6227580915613</v>
       </c>
       <c r="P6" t="n">
-        <v>224.2018700049979</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8456,19 +8456,19 @@
         <v>314.1163646920974</v>
       </c>
       <c r="L8" t="n">
-        <v>329.7929286171041</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>324.3727468743896</v>
+        <v>324.0344970488442</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>320.3256740123545</v>
+        <v>324.1247250688036</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>157.9733879151991</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>236.1605475691352</v>
+        <v>232.361496512686</v>
       </c>
       <c r="N9" t="n">
         <v>225.3682257304502</v>
@@ -8547,10 +8547,10 @@
         <v>236.6227580915613</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>228.0009210614471</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,13 +8772,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>303.312501347746</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -9252,7 +9252,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>222.4246658592332</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>168.5314335381781</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10914,10 +10914,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11142,13 +11142,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,7 +11379,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
@@ -11388,7 +11388,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>256.1752227966105</v>
+        <v>15.16093391895146</v>
       </c>
       <c r="C11" t="n">
         <v>238.7142729041375</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>228.1244227538129</v>
       </c>
       <c r="E11" t="n">
         <v>255.3717512053917</v>
@@ -23270,13 +23270,13 @@
         <v>280.3174268748414</v>
       </c>
       <c r="G11" t="n">
-        <v>47.72982977060593</v>
+        <v>288.744118648265</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>83.91727070353585</v>
+        <v>83.91727070353583</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>23.31049907427962</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.46145071937528</v>
+        <v>82.46145071937526</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>96.53723069726128</v>
       </c>
       <c r="U11" t="n">
-        <v>124.7870340409664</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>201.1936396032648</v>
       </c>
       <c r="W11" t="n">
-        <v>222.6823498505429</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>243.172481811599</v>
       </c>
       <c r="Y11" t="n">
-        <v>102.9431930903946</v>
+        <v>149.0614226051093</v>
       </c>
     </row>
     <row r="12">
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>97.45797917010219</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>101.3869705614114</v>
+        <v>61.98373563199703</v>
       </c>
       <c r="U13" t="n">
-        <v>22.89919639010463</v>
+        <v>159.7604104896208</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>204.4639144975256</v>
       </c>
       <c r="E14" t="n">
         <v>242.1541689419192</v>
@@ -23507,13 +23507,13 @@
         <v>267.0998446113689</v>
       </c>
       <c r="G14" t="n">
-        <v>275.5265363847925</v>
+        <v>34.51224750713345</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>70.69968844006337</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>10.09291681080714</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>69.2438684559028</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>83.31964843378881</v>
       </c>
       <c r="U14" t="n">
         <v>111.569451777494</v>
       </c>
       <c r="V14" t="n">
-        <v>45.31345406949475</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>209.4647675870705</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>242.957640533138</v>
+        <v>1.943351655478978</v>
       </c>
       <c r="C17" t="n">
         <v>225.496690640665</v>
@@ -23738,16 +23738,16 @@
         <v>214.9068404903404</v>
       </c>
       <c r="E17" t="n">
-        <v>1.139880064260183</v>
+        <v>242.1541689419192</v>
       </c>
       <c r="F17" t="n">
-        <v>26.08555573370984</v>
+        <v>267.0998446113689</v>
       </c>
       <c r="G17" t="n">
-        <v>34.51224750713345</v>
+        <v>275.5265363847925</v>
       </c>
       <c r="H17" t="n">
-        <v>58.11290378204586</v>
+        <v>199.6986009854246</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23789,16 +23789,16 @@
         <v>111.569451777494</v>
       </c>
       <c r="V17" t="n">
-        <v>187.9760573397924</v>
+        <v>35.33097080688111</v>
       </c>
       <c r="W17" t="n">
         <v>209.4647675870705</v>
       </c>
       <c r="X17" t="n">
-        <v>229.9548995481265</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>246.461737525711</v>
+        <v>5.447448648051989</v>
       </c>
     </row>
     <row r="18">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>242.957640533138</v>
+        <v>1.943351655478978</v>
       </c>
       <c r="C20" t="n">
         <v>225.496690640665</v>
@@ -23975,16 +23975,16 @@
         <v>214.9068404903404</v>
       </c>
       <c r="E20" t="n">
-        <v>1.139880064260183</v>
+        <v>242.1541689419192</v>
       </c>
       <c r="F20" t="n">
-        <v>26.08555573370984</v>
+        <v>267.0998446113689</v>
       </c>
       <c r="G20" t="n">
         <v>275.5265363847925</v>
       </c>
       <c r="H20" t="n">
-        <v>199.6986009854246</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>70.69968844006337</v>
@@ -24026,16 +24026,16 @@
         <v>111.569451777494</v>
       </c>
       <c r="V20" t="n">
-        <v>187.9760573397924</v>
+        <v>143.8397513911863</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>229.9548995481265</v>
       </c>
       <c r="Y20" t="n">
-        <v>232.5817301398069</v>
+        <v>5.447448648051989</v>
       </c>
     </row>
     <row r="21">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>242.957640533138</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>225.496690640665</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>214.9068404903404</v>
+        <v>171.7001036735853</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>267.0998446113689</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>199.6986009854246</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>70.69968844006337</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,7 +24257,7 @@
         <v>69.2438684559028</v>
       </c>
       <c r="T23" t="n">
-        <v>72.15974454144728</v>
+        <v>83.31964843378881</v>
       </c>
       <c r="U23" t="n">
         <v>111.569451777494</v>
@@ -24266,13 +24266,13 @@
         <v>187.9760573397924</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>209.4647675870705</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>246.461737525711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>278.1967681884737</v>
+        <v>278.1967681884738</v>
       </c>
       <c r="C26" t="n">
         <v>260.7358182960007</v>
@@ -24449,19 +24449,19 @@
         <v>250.1459681456761</v>
       </c>
       <c r="E26" t="n">
-        <v>277.3932965972549</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>41.34712385062988</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>234.9377286407603</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>105.9388160953991</v>
+        <v>36.31546723723707</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,19 +24497,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>146.8085794328296</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>223.2151849951281</v>
       </c>
       <c r="W26" t="n">
         <v>244.7038952424062</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>265.1940272034622</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>281.7008651810468</v>
       </c>
     </row>
     <row r="27">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.29490670693045</v>
+        <v>75.29490670693046</v>
       </c>
       <c r="C28" t="n">
-        <v>62.70974762362098</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>44.07839954320551</v>
+        <v>44.07839954320552</v>
       </c>
       <c r="E28" t="n">
-        <v>41.89688917156232</v>
+        <v>41.89688917156234</v>
       </c>
       <c r="F28" t="n">
-        <v>40.8839745479244</v>
+        <v>40.88397454792441</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.69009903243274</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>50.91340145225145</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>72.75631790216265</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>33.85889141317624</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>181.7819558814841</v>
       </c>
       <c r="V28" t="n">
-        <v>64.68540125400494</v>
+        <v>147.6005698488212</v>
       </c>
       <c r="W28" t="n">
-        <v>181.9859248615842</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>121.1725819140303</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>114.0475798770879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>185.9651109034931</v>
+        <v>246.8741865007807</v>
       </c>
       <c r="C29" t="n">
         <v>229.4132366083077</v>
@@ -24689,7 +24689,7 @@
         <v>246.0707149095619</v>
       </c>
       <c r="F29" t="n">
-        <v>271.0163905790116</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>14.00946277844983</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>73.16041442354549</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>136.9469005581786</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24923,19 +24923,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>176.3680450830998</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>209.7404125259731</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>133.9124771266052</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>4.913564581243918</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,22 +24965,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.457744597083348</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>31.95597459129359</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>43.44335264979213</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>164.168775689307</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25154,7 +25154,7 @@
         <v>177.1715166743186</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>159.7105667818456</v>
       </c>
       <c r="D35" t="n">
         <v>149.120716631521</v>
@@ -25169,10 +25169,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>133.9124771266052</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>4.913564581243918</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,25 +25202,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.457744597083348</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>45.7833279186745</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>99.51416323503376</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>164.168775689307</v>
+        <v>111.3638726992105</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>180.6756136668916</v>
       </c>
     </row>
     <row r="36">
@@ -25388,16 +25388,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>177.1715166743186</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>74.19957953951688</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>149.120716631521</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>176.3680450830998</v>
       </c>
       <c r="F38" t="n">
         <v>201.3137207525494</v>
@@ -25406,10 +25406,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>133.9124771266052</v>
       </c>
       <c r="I38" t="n">
-        <v>4.913564581243918</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25445,7 +25445,7 @@
         <v>17.53352457496936</v>
       </c>
       <c r="U38" t="n">
-        <v>45.7833279186745</v>
+        <v>6.835525561835006</v>
       </c>
       <c r="V38" t="n">
         <v>122.1899334809729</v>
@@ -25454,7 +25454,7 @@
         <v>143.678643728251</v>
       </c>
       <c r="X38" t="n">
-        <v>164.168775689307</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>268.4910078858529</v>
+        <v>27.47671900819387</v>
       </c>
       <c r="C41" t="n">
         <v>251.0300579933799</v>
@@ -25634,19 +25634,19 @@
         <v>240.4402078430553</v>
       </c>
       <c r="E41" t="n">
-        <v>26.67324741697507</v>
+        <v>267.6875362946341</v>
       </c>
       <c r="F41" t="n">
-        <v>292.6332119640838</v>
+        <v>51.61892308642473</v>
       </c>
       <c r="G41" t="n">
         <v>301.0599037375074</v>
       </c>
       <c r="H41" t="n">
-        <v>225.2319683381395</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>96.23305579277827</v>
+        <v>96.23305579277829</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>35.62628416352204</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>94.7772358086177</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>108.8530157865037</v>
+        <v>11.18882957568208</v>
       </c>
       <c r="U41" t="n">
-        <v>137.1028191302088</v>
+        <v>137.1028191302089</v>
       </c>
       <c r="V41" t="n">
         <v>213.5094246925073</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>234.9981349397854</v>
       </c>
       <c r="X41" t="n">
-        <v>37.18672731952563</v>
+        <v>255.4882669008414</v>
       </c>
       <c r="Y41" t="n">
-        <v>30.98081600076688</v>
+        <v>271.995104878426</v>
       </c>
     </row>
     <row r="42">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.58914640430966</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>53.0039873210002</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>34.37263924058472</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>32.19112886894153</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>31.17821424530361</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>53.74814558083112</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>47.98433872981194</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>41.20764114963065</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>63.05055759954185</v>
+        <v>63.05055759954186</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>109.7737642593446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>113.7027556506539</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>172.0761955788633</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>56.75904218882579</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.03651613727365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25874,16 +25874,16 @@
         <v>312.2277002457996</v>
       </c>
       <c r="F44" t="n">
-        <v>337.1733759152493</v>
+        <v>124.8879902718072</v>
       </c>
       <c r="G44" t="n">
-        <v>345.6000676886729</v>
+        <v>104.5857788110138</v>
       </c>
       <c r="H44" t="n">
-        <v>57.48674664586287</v>
+        <v>269.772132289305</v>
       </c>
       <c r="I44" t="n">
-        <v>140.7732197439437</v>
+        <v>140.7732197439438</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>80.16644811468753</v>
+        <v>80.16644811468754</v>
       </c>
       <c r="S44" t="n">
         <v>139.3173997597832</v>
@@ -25919,19 +25919,19 @@
         <v>153.3931797376692</v>
       </c>
       <c r="U44" t="n">
-        <v>181.6429830813743</v>
+        <v>181.6429830813744</v>
       </c>
       <c r="V44" t="n">
-        <v>258.0495886436727</v>
+        <v>17.03529976601374</v>
       </c>
       <c r="W44" t="n">
         <v>38.52401001329179</v>
       </c>
       <c r="X44" t="n">
-        <v>59.01414197434781</v>
+        <v>300.0284308520069</v>
       </c>
       <c r="Y44" t="n">
-        <v>75.52097995193236</v>
+        <v>316.5352688295915</v>
       </c>
     </row>
     <row r="45">
@@ -25944,25 +25944,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>103.0058291618536</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>87.94241062893879</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>75.36654256692172</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>67.64084733674848</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>42.53277441003431</v>
+        <v>42.53277441003432</v>
       </c>
       <c r="I45" t="n">
-        <v>19.69396302495292</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,13 +25989,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>30.45516432618098</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>24.40785888194017</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>130.4620588683595</v>
       </c>
       <c r="U45" t="n">
         <v>156.2387122545127</v>
@@ -26004,10 +26004,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>88.82778941617583</v>
+        <v>181.9923133344575</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>136.0703153770153</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26020,31 +26020,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>110.1293103554751</v>
+        <v>110.1293103554752</v>
       </c>
       <c r="C46" t="n">
-        <v>97.54415127216568</v>
+        <v>97.54415127216569</v>
       </c>
       <c r="D46" t="n">
-        <v>78.9128031917502</v>
+        <v>78.91280319175021</v>
       </c>
       <c r="E46" t="n">
-        <v>76.73129282010702</v>
+        <v>76.73129282010703</v>
       </c>
       <c r="F46" t="n">
-        <v>75.71837819646909</v>
+        <v>75.7183781964691</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>98.28830953199662</v>
       </c>
       <c r="H46" t="n">
-        <v>92.52450268097742</v>
+        <v>92.52450268097743</v>
       </c>
       <c r="I46" t="n">
-        <v>56.76789242603723</v>
+        <v>85.74780510079614</v>
       </c>
       <c r="J46" t="n">
-        <v>23.65651029021062</v>
+        <v>23.65651029021063</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>16.45937342523224</v>
       </c>
       <c r="R46" t="n">
         <v>107.5907215507073</v>
@@ -26074,16 +26074,16 @@
         <v>154.3139282105101</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>158.2429196018194</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>97.28478677368798</v>
       </c>
       <c r="V46" t="n">
-        <v>182.4349734973658</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>216.8203285101288</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>156.006985562575</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>499407.3374913013</v>
+        <v>499407.3374913014</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>547571.6282966493</v>
+        <v>547571.6282966492</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>575538.1877487374</v>
+        <v>575538.1877487375</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>575538.1877487374</v>
+        <v>575538.1877487375</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>482358.1725292559</v>
+        <v>482358.172529256</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642839</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642837</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
         <v>643562.9071307002</v>
@@ -26326,34 +26326,34 @@
         <v>665718.6794083762</v>
       </c>
       <c r="G2" t="n">
-        <v>665718.6794083758</v>
+        <v>665718.679408376</v>
       </c>
       <c r="H2" t="n">
-        <v>665718.6794083761</v>
+        <v>665718.6794083762</v>
       </c>
       <c r="I2" t="n">
-        <v>711124.9199943051</v>
+        <v>711124.9199943052</v>
       </c>
       <c r="J2" t="n">
-        <v>648322.2372804724</v>
+        <v>648322.2372804723</v>
       </c>
       <c r="K2" t="n">
         <v>706136.8070499164</v>
       </c>
       <c r="L2" t="n">
-        <v>790476.9480598763</v>
+        <v>790476.9480598764</v>
       </c>
       <c r="M2" t="n">
+        <v>745070.7074739473</v>
+      </c>
+      <c r="N2" t="n">
         <v>745070.7074739472</v>
       </c>
-      <c r="N2" t="n">
-        <v>745070.707473947</v>
-      </c>
       <c r="O2" t="n">
-        <v>620830.6871813047</v>
+        <v>620830.6871813044</v>
       </c>
       <c r="P2" t="n">
-        <v>510119.9686450361</v>
+        <v>510119.9686450362</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31510.44733296275</v>
+        <v>31510.44733296277</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>145134.2110462809</v>
       </c>
       <c r="F3" t="n">
-        <v>10574.06581077798</v>
+        <v>10574.06581077797</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>334178.1081360862</v>
+        <v>331924.5305029928</v>
       </c>
       <c r="C4" t="n">
-        <v>334178.1081360861</v>
+        <v>331924.5305029928</v>
       </c>
       <c r="D4" t="n">
-        <v>334178.1081360861</v>
+        <v>331924.5305029927</v>
       </c>
       <c r="E4" t="n">
-        <v>197670.8552003629</v>
+        <v>194810.4599559107</v>
       </c>
       <c r="F4" t="n">
-        <v>210319.8719474821</v>
+        <v>207459.4767030299</v>
       </c>
       <c r="G4" t="n">
-        <v>210319.8719474821</v>
+        <v>207459.4767030299</v>
       </c>
       <c r="H4" t="n">
-        <v>210319.8719474821</v>
+        <v>207459.4767030299</v>
       </c>
       <c r="I4" t="n">
-        <v>224509.0260896523</v>
+        <v>221437.7368556788</v>
       </c>
       <c r="J4" t="n">
-        <v>188605.7246404949</v>
+        <v>185534.4354065213</v>
       </c>
       <c r="K4" t="n">
-        <v>221681.7063305717</v>
+        <v>218610.4170965982</v>
       </c>
       <c r="L4" t="n">
-        <v>269594.935868302</v>
+        <v>266523.6466343285</v>
       </c>
       <c r="M4" t="n">
-        <v>255405.7817261318</v>
+        <v>252545.3864816797</v>
       </c>
       <c r="N4" t="n">
-        <v>255405.7817261318</v>
+        <v>252545.3864816796</v>
       </c>
       <c r="O4" t="n">
-        <v>184665.6474504935</v>
+        <v>181805.2522060412</v>
       </c>
       <c r="P4" t="n">
-        <v>121378.0339225125</v>
+        <v>118517.6386780604</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>416008.8023654902</v>
+        <v>418262.3799985831</v>
       </c>
       <c r="C6" t="n">
-        <v>447519.2496984529</v>
+        <v>449772.827331546</v>
       </c>
       <c r="D6" t="n">
-        <v>447519.2496984528</v>
+        <v>449772.8273315459</v>
       </c>
       <c r="E6" t="n">
-        <v>275464.5155907758</v>
+        <v>278324.910835228</v>
       </c>
       <c r="F6" t="n">
-        <v>418420.2274335277</v>
+        <v>421280.6226779799</v>
       </c>
       <c r="G6" t="n">
-        <v>428994.2932443052</v>
+        <v>431854.6884887576</v>
       </c>
       <c r="H6" t="n">
-        <v>428994.2932443056</v>
+        <v>431854.6884887578</v>
       </c>
       <c r="I6" t="n">
-        <v>412187.3867769664</v>
+        <v>415258.67601094</v>
       </c>
       <c r="J6" t="n">
-        <v>329680.5938063149</v>
+        <v>332751.8830402883</v>
       </c>
       <c r="K6" t="n">
-        <v>413810.8587107606</v>
+        <v>416882.1479447341</v>
       </c>
       <c r="L6" t="n">
-        <v>424247.9317331121</v>
+        <v>427319.2209670857</v>
       </c>
       <c r="M6" t="n">
-        <v>457729.8378845399</v>
+        <v>460590.2331289921</v>
       </c>
       <c r="N6" t="n">
-        <v>457729.8378845396</v>
+        <v>460590.233128992</v>
       </c>
       <c r="O6" t="n">
-        <v>411907.0901741982</v>
+        <v>414767.4854186501</v>
       </c>
       <c r="P6" t="n">
-        <v>368228.4322091211</v>
+        <v>371088.8274535733</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>114.2428337776276</v>
       </c>
       <c r="P2" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
     </row>
     <row r="3">
@@ -26917,7 +26917,7 @@
         <v>126.5586188668701</v>
       </c>
       <c r="F2" t="n">
-        <v>13.21758226347248</v>
+        <v>13.21758226347247</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>126.5586188668701</v>
       </c>
       <c r="K2" t="n">
-        <v>13.21758226347248</v>
+        <v>13.21758226347247</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>312.8495320945946</v>
+        <v>361.3002186056232</v>
       </c>
       <c r="G2" t="n">
-        <v>354.4241728639118</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>116.449375923289</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>55.84260429403281</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>114.9935559391285</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>129.0693359170145</v>
       </c>
       <c r="U2" t="n">
-        <v>157.3191392607196</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.46122175574463</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27479,7 +27479,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>6.131320505526261</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27512,16 +27512,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>143.1228288605943</v>
       </c>
       <c r="V3" t="n">
-        <v>138.7740735023084</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>157.6684695138027</v>
       </c>
       <c r="X3" t="n">
-        <v>111.7464715563606</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>111.6561821301875</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>133.9190757811646</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>269.4280672441226</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>212.9771893855768</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>192.4964846894741</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27625,19 +27625,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>312.8495320945946</v>
+        <v>339.360230036466</v>
       </c>
       <c r="G5" t="n">
-        <v>321.2762238680182</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>245.4482884686503</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27673,16 +27673,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>266.8736938189117</v>
+        <v>233.725744823018</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>255.2144550702961</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>292.2114250089367</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27710,10 +27710,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>18.20893058937959</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>6.131320505526261</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>77.65665745672095</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27755,10 +27755,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>164.9931404710951</v>
+        <v>157.6684695138027</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>123.7010233093548</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27813,13 +27813,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27831,13 +27831,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>215.6986301206834</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>131.6831417419203</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>312.8495320945946</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>332.4841842947545</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27904,22 +27904,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>129.0693359170145</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>233.725744823018</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>255.2144550702961</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>275.7045870313522</v>
       </c>
       <c r="Y8" t="n">
-        <v>292.2114250089367</v>
+        <v>325.5981686925195</v>
       </c>
     </row>
     <row r="9">
@@ -27938,7 +27938,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>63.61856680828407</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,10 +27980,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>77.65665745672095</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>117.3461754744411</v>
       </c>
       <c r="U9" t="n">
         <v>131.9148684338579</v>
@@ -27992,13 +27992,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>169.6230212667969</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>111.7464715563606</v>
       </c>
       <c r="Y9" t="n">
-        <v>111.6561821301875</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>54.58895937109548</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28065,16 +28065,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>247.1585754182397</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>247.3625443983398</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>131.6831417419203</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28172,19 +28172,19 @@
         <v>126.5586188668701</v>
       </c>
       <c r="D12" t="n">
-        <v>126.5586188668701</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>126.5586188668701</v>
       </c>
       <c r="F12" t="n">
-        <v>126.5586188668701</v>
+        <v>93.01203157358826</v>
       </c>
       <c r="G12" t="n">
         <v>126.5586188668701</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -28232,7 +28232,7 @@
         <v>126.5586188668701</v>
       </c>
       <c r="X12" t="n">
-        <v>78.68885694321472</v>
+        <v>126.5586188668701</v>
       </c>
       <c r="Y12" t="n">
         <v>126.5586188668701</v>
@@ -28406,13 +28406,13 @@
         <v>139.7762011303425</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>139.7762011303425</v>
       </c>
       <c r="D15" t="n">
         <v>139.7762011303425</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>139.7762011303425</v>
       </c>
       <c r="F15" t="n">
         <v>139.7762011303425</v>
@@ -28427,7 +28427,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28451,13 +28451,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>89.82751177286538</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>139.7762011303425</v>
+        <v>50.95573612142397</v>
       </c>
       <c r="U15" t="n">
         <v>139.7762011303425</v>
@@ -28512,7 +28512,7 @@
         <v>139.7762011303425</v>
       </c>
       <c r="L16" t="n">
-        <v>139.7762011303425</v>
+        <v>44.50674994640593</v>
       </c>
       <c r="M16" t="n">
         <v>139.7762011303425</v>
@@ -28521,7 +28521,7 @@
         <v>139.7762011303425</v>
       </c>
       <c r="O16" t="n">
-        <v>44.50674994640595</v>
+        <v>139.7762011303425</v>
       </c>
       <c r="P16" t="n">
         <v>139.7762011303425</v>
@@ -28643,10 +28643,10 @@
         <v>139.7762011303425</v>
       </c>
       <c r="C18" t="n">
-        <v>139.7762011303425</v>
+        <v>89.82751177286544</v>
       </c>
       <c r="D18" t="n">
-        <v>139.7762011303425</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28655,7 +28655,7 @@
         <v>139.7762011303425</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -28691,7 +28691,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>87.39482780573351</v>
+        <v>139.7762011303425</v>
       </c>
       <c r="T18" t="n">
         <v>139.7762011303425</v>
@@ -28752,13 +28752,13 @@
         <v>139.7762011303425</v>
       </c>
       <c r="M19" t="n">
-        <v>139.7762011303425</v>
+        <v>44.50674994640596</v>
       </c>
       <c r="N19" t="n">
         <v>139.7762011303425</v>
       </c>
       <c r="O19" t="n">
-        <v>44.50674994640595</v>
+        <v>139.7762011303425</v>
       </c>
       <c r="P19" t="n">
         <v>139.7762011303425</v>
@@ -28883,7 +28883,7 @@
         <v>139.7762011303425</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>139.7762011303425</v>
       </c>
       <c r="E21" t="n">
         <v>139.7762011303425</v>
@@ -28898,10 +28898,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28928,7 +28928,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>62.28675487901943</v>
+        <v>139.7762011303425</v>
       </c>
       <c r="T21" t="n">
         <v>139.7762011303425</v>
@@ -28937,7 +28937,7 @@
         <v>139.7762011303425</v>
       </c>
       <c r="V21" t="n">
-        <v>139.7762011303425</v>
+        <v>12.65377792634982</v>
       </c>
       <c r="W21" t="n">
         <v>139.7762011303425</v>
@@ -28986,7 +28986,7 @@
         <v>139.7762011303425</v>
       </c>
       <c r="L22" t="n">
-        <v>44.50674994640582</v>
+        <v>139.7762011303425</v>
       </c>
       <c r="M22" t="n">
         <v>139.7762011303425</v>
@@ -28995,7 +28995,7 @@
         <v>139.7762011303425</v>
       </c>
       <c r="O22" t="n">
-        <v>139.7762011303425</v>
+        <v>44.50674994640583</v>
       </c>
       <c r="P22" t="n">
         <v>139.7762011303425</v>
@@ -29062,19 +29062,19 @@
         <v>139.7762011303425</v>
       </c>
       <c r="K23" t="n">
-        <v>44.84738496064111</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>44.84738496064105</v>
+      </c>
+      <c r="N23" t="n">
         <v>139.7762011303425</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
         <v>139.7762011303425</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29114,22 +29114,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>139.7762011303425</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>139.7762011303425</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>139.7762011303425</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>139.7762011303425</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>139.7762011303425</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -29165,25 +29165,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>139.7762011303425</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>76.06947421241581</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>139.7762011303425</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>139.7762011303425</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>139.7762011303425</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>139.7762011303425</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>139.7762011303425</v>
+        <v>78.50215817954756</v>
       </c>
     </row>
     <row r="25">
@@ -29217,16 +29217,16 @@
         <v>139.7762011303425</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>139.7762011303425</v>
       </c>
       <c r="K25" t="n">
-        <v>90.9237709600756</v>
+        <v>139.7762011303425</v>
       </c>
       <c r="L25" t="n">
         <v>139.7762011303425</v>
       </c>
       <c r="M25" t="n">
-        <v>139.7762011303425</v>
+        <v>44.50674994640585</v>
       </c>
       <c r="N25" t="n">
         <v>139.7762011303425</v>
@@ -29308,10 +29308,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
+        <v>81.26682210697686</v>
+      </c>
+      <c r="O26" t="n">
         <v>104.5370734750068</v>
-      </c>
-      <c r="O26" t="n">
-        <v>81.26682210697709</v>
       </c>
       <c r="P26" t="n">
         <v>104.5370734750068</v>
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>104.5370734750068</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>104.5370734750068</v>
@@ -29360,7 +29360,7 @@
         <v>104.5370734750068</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>104.5370734750068</v>
       </c>
       <c r="F27" t="n">
         <v>104.5370734750068</v>
@@ -29369,7 +29369,7 @@
         <v>104.5370734750068</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>104.5370734750068</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -29408,19 +29408,19 @@
         <v>104.5370734750068</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>104.5370734750068</v>
       </c>
       <c r="V27" t="n">
-        <v>104.5370734750068</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>104.5370734750068</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>86.12846395590591</v>
+        <v>86.12846395590621</v>
       </c>
     </row>
     <row r="28">
@@ -29536,25 +29536,25 @@
         <v>135.8596551626999</v>
       </c>
       <c r="K29" t="n">
-        <v>60.51356883121204</v>
+        <v>135.8596551626999</v>
       </c>
       <c r="L29" t="n">
+        <v>50.52286961666735</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>135.8596551626999</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29" t="n">
         <v>135.8596551626999</v>
       </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>135.8596551626999</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>135.8596551626999</v>
@@ -29597,52 +29597,52 @@
         <v>135.8596551626999</v>
       </c>
       <c r="E30" t="n">
-        <v>18.15049802318811</v>
+        <v>29.48151678078344</v>
       </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>100.1578341526431</v>
+      </c>
+      <c r="S30" t="n">
         <v>135.8596551626999</v>
       </c>
-      <c r="G30" t="n">
+      <c r="T30" t="n">
         <v>135.8596551626999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>112.2354442364965</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>135.8596551626999</v>
@@ -29770,28 +29770,28 @@
         <v>205.562324989162</v>
       </c>
       <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>125.1850431010627</v>
+      </c>
+      <c r="O32" t="n">
         <v>205.562324989162</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>205.562324989162</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>137.1343324556753</v>
       </c>
       <c r="R32" t="n">
         <v>205.562324989162</v>
@@ -29825,16 +29825,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -29873,13 +29873,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>130.2772008903218</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29891,10 +29891,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>40.22271239853561</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.562324989162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29931,10 +29931,10 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>174.4100129092352</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>152.1405210833523</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -30071,7 +30071,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -30080,10 +30080,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>82.5568060597562</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -30116,16 +30116,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>129.3192923663305</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>205.562324989162</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>205.562324989162</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>205.562324989162</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -30162,10 +30162,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>205.562324989162</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>138.4409991671718</v>
       </c>
       <c r="K37" t="n">
         <v>22.26949182588285</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>154.8619618184588</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -30311,7 +30311,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -30323,7 +30323,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>70.47919597590278</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>87.54110964649757</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>205.562324989162</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>205.562324989162</v>
       </c>
       <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
         <v>205.562324989162</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30384,7 +30384,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>181.3557123640971</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -30405,7 +30405,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>174.4100129092352</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>205.562324989162</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="C44" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="D44" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="E44" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="F44" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="G44" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="H44" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="I44" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30742,28 +30742,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="S44" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="T44" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="U44" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="V44" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="W44" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="X44" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="Y44" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
     </row>
     <row r="45">
@@ -30773,28 +30773,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="C45" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="D45" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="E45" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="F45" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="G45" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="H45" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="I45" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30821,28 +30821,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="S45" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="T45" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="U45" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="V45" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="W45" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="X45" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="Y45" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
     </row>
     <row r="46">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="C46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="D46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="E46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="F46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="G46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="H46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="I46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="J46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="K46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="L46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="M46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="N46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="O46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="P46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="R46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="S46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="T46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="U46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="V46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="W46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="X46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.70266982646216</v>
+        <v>69.70266982646214</v>
       </c>
     </row>
   </sheetData>
@@ -34702,16 +34702,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>93.68826382157148</v>
       </c>
       <c r="M2" t="n">
-        <v>93.68826382157148</v>
+        <v>94.02651364711687</v>
       </c>
       <c r="N2" t="n">
         <v>94.02651364711687</v>
       </c>
       <c r="O2" t="n">
-        <v>94.02651364711687</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>94.02651364711687</v>
+        <v>20.13194894084014</v>
       </c>
       <c r="L3" t="n">
-        <v>94.02651364711687</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>94.02651364711687</v>
       </c>
       <c r="N3" t="n">
-        <v>90.22746259066771</v>
+        <v>94.02651364711687</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>94.02651364711687</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>94.02651364711687</v>
+      </c>
+      <c r="L5" t="n">
+        <v>94.02651364711687</v>
+      </c>
+      <c r="M5" t="n">
         <v>93.68826382157148</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>94.02651364711687</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>94.02651364711687</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>94.02651364711687</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>94.02651364711687</v>
@@ -35024,13 +35024,13 @@
         <v>94.02651364711687</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>90.22746259066771</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>94.02651364711687</v>
       </c>
       <c r="P6" t="n">
-        <v>90.22746259066771</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35176,19 +35176,19 @@
         <v>94.02651364711687</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>93.68826382157148</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>94.02651364711687</v>
       </c>
-      <c r="M8" t="n">
-        <v>94.02651364711687</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>90.22746259066771</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>20.13194894084014</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>94.02651364711687</v>
+        <v>90.22746259066771</v>
       </c>
       <c r="N9" t="n">
         <v>94.02651364711687</v>
@@ -35267,10 +35267,10 @@
         <v>94.02651364711687</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>94.02651364711687</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>161.1784674257276</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.19943875019729</v>
+        <v>33.1994387501973</v>
       </c>
       <c r="K13" t="n">
         <v>104.2891270409872</v>
@@ -35586,7 +35586,7 @@
         <v>123.8371781317636</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.39657561517568</v>
+        <v>40.39657561517569</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>117.5067093044597</v>
       </c>
       <c r="L16" t="n">
-        <v>167.3662263906587</v>
+        <v>72.09677520672207</v>
       </c>
       <c r="M16" t="n">
         <v>179.3600780921831</v>
@@ -35817,7 +35817,7 @@
         <v>183.9083735095711</v>
       </c>
       <c r="O16" t="n">
-        <v>69.09187786044562</v>
+        <v>164.3613290443822</v>
       </c>
       <c r="P16" t="n">
         <v>137.054760395236</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>91.0829537758999</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36048,13 +36048,13 @@
         <v>167.3662263906587</v>
       </c>
       <c r="M19" t="n">
-        <v>179.3600780921831</v>
+        <v>84.09062690824655</v>
       </c>
       <c r="N19" t="n">
         <v>183.9083735095711</v>
       </c>
       <c r="O19" t="n">
-        <v>69.09187786044562</v>
+        <v>164.3613290443822</v>
       </c>
       <c r="P19" t="n">
         <v>137.054760395236</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>117.5067093044597</v>
       </c>
       <c r="L22" t="n">
-        <v>72.09677520672196</v>
+        <v>167.3662263906587</v>
       </c>
       <c r="M22" t="n">
         <v>179.3600780921831</v>
@@ -36291,7 +36291,7 @@
         <v>183.9083735095711</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3613290443822</v>
+        <v>69.09187786044551</v>
       </c>
       <c r="P22" t="n">
         <v>137.054760395236</v>
@@ -36358,19 +36358,19 @@
         <v>127.82691177573</v>
       </c>
       <c r="K23" t="n">
-        <v>148.9029464868253</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L23" t="n">
-        <v>321.6710007108057</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M23" t="n">
-        <v>358.9435013959023</v>
+        <v>264.0146852262008</v>
       </c>
       <c r="N23" t="n">
-        <v>207.9338608153932</v>
+        <v>347.7100619457358</v>
       </c>
       <c r="O23" t="n">
-        <v>150.7019698410586</v>
+        <v>290.4781709714011</v>
       </c>
       <c r="P23" t="n">
         <v>90.5657124162131</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>46.41702101366977</v>
       </c>
       <c r="K25" t="n">
-        <v>68.65427913419275</v>
+        <v>117.5067093044597</v>
       </c>
       <c r="L25" t="n">
         <v>167.3662263906587</v>
       </c>
       <c r="M25" t="n">
-        <v>179.3600780921831</v>
+        <v>84.09062690824643</v>
       </c>
       <c r="N25" t="n">
         <v>183.9083735095711</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>92.58778412039433</v>
+        <v>92.58778412039432</v>
       </c>
       <c r="K26" t="n">
         <v>208.592635001191</v>
@@ -36604,16 +36604,16 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
-        <v>312.4709342904001</v>
+        <v>289.2006829223701</v>
       </c>
       <c r="O26" t="n">
-        <v>231.9687919480357</v>
+        <v>255.2390433160655</v>
       </c>
       <c r="P26" t="n">
-        <v>195.10278589122</v>
+        <v>195.1027858912199</v>
       </c>
       <c r="Q26" t="n">
-        <v>94.54637426046204</v>
+        <v>94.54637426046203</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>11.17789335833407</v>
+        <v>11.17789335833406</v>
       </c>
       <c r="K28" t="n">
-        <v>82.267581649124</v>
+        <v>82.26758164912398</v>
       </c>
       <c r="L28" t="n">
         <v>132.127098735323</v>
@@ -36771,7 +36771,7 @@
         <v>101.8156327399003</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.37503022331246</v>
+        <v>18.37503022331245</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,25 +36832,25 @@
         <v>123.9103658080873</v>
       </c>
       <c r="K29" t="n">
-        <v>164.5691303573962</v>
+        <v>239.915216688884</v>
       </c>
       <c r="L29" t="n">
-        <v>317.754454743163</v>
+        <v>232.4176691971306</v>
       </c>
       <c r="M29" t="n">
-        <v>355.0269554282596</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
-        <v>207.9338608153932</v>
+        <v>343.7935159780931</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410586</v>
+        <v>286.5616250037585</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
       </c>
       <c r="Q29" t="n">
-        <v>125.868955948155</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>193.6130356345495</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>104.0555615261842</v>
       </c>
       <c r="L32" t="n">
-        <v>387.4571245696252</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153932</v>
+        <v>333.1189039164559</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410586</v>
+        <v>356.2642948302206</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
       </c>
       <c r="Q32" t="n">
-        <v>127.1436332411305</v>
+        <v>195.5716257746172</v>
       </c>
       <c r="R32" t="n">
         <v>55.69320704801231</v>
@@ -37227,10 +37227,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>152.1405210833523</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>27.59002526031614</v>
+        <v>179.7305463436685</v>
       </c>
       <c r="M34" t="n">
         <v>39.58387696184059</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>56.94685197094964</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37458,10 +37458,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>50.11185006190371</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.08181905049896</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>24.58512791403967</v>
       </c>
       <c r="P37" t="n">
-        <v>152.1405210833523</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37634,10 +37634,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37680,7 +37680,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>32.74023934588472</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>152.1405210833523</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>27.59002526031614</v>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>119.4002817374676</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37877,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>20.88365366095486</v>
+        <v>20.88365366095485</v>
       </c>
       <c r="K43" t="n">
-        <v>91.97334195174479</v>
+        <v>91.97334195174477</v>
       </c>
       <c r="L43" t="n">
         <v>141.8328590379438</v>
@@ -37956,7 +37956,7 @@
         <v>111.5213930425211</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.08079052593325</v>
+        <v>28.08079052593324</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
@@ -38108,7 +38108,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>47.4331780005793</v>
+        <v>47.43317800057929</v>
       </c>
       <c r="L46" t="n">
-        <v>97.29269508677829</v>
+        <v>97.29269508677828</v>
       </c>
       <c r="M46" t="n">
         <v>109.2865467883027</v>
@@ -38187,10 +38187,10 @@
         <v>113.8348422056907</v>
       </c>
       <c r="O46" t="n">
-        <v>94.28779774050183</v>
+        <v>94.28779774050182</v>
       </c>
       <c r="P46" t="n">
-        <v>66.98122909135564</v>
+        <v>66.98122909135563</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
